--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="add_clue" sheetId="2" r:id="rId2"/>
+    <sheet name="add_student" sheetId="3" r:id="rId3"/>
+    <sheet name="check_clue" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>用例编号</t>
   </si>
@@ -102,6 +104,45 @@
   </si>
   <si>
     <t>{"baseinfo":{"campusid":"46228750007005","id":"","name":"但是","sex":{"id":""},"birthday":"","nationality":{"id":"","value":""},"nation":{"value":"","id":""},"idtype":{"value":"","id":""},"cardid":"","govstudentid":"","avatar":"","status":1,"areacode":"+86","nodebranch":[]},"recruitinfo":{"startschoolway":{"id":"","value":""},"majorid":"","nowschool":"","nowgrade":{"value":"","id":""},"postgrade":{"value":"","id":"46218800007005"},"hopetime":"","recommender":"","recommendername":"","semester":{"value":"","id":""},"cluestatus":{"value":"","id":""},"cluecategory":{"value":"","id":""},"employee":{"value":"","id":""},"teacherName":"","intention":0,"datafrom":{"value":"","id":""},"cluestudentid":"","createuser":{"value":"","id":""},"createtime":""},"familyinfos":[{"name":"","areacode":"+86","appellation":{"id":""},"phone":"","education":{"value":"","id":""},"workin":"","jobname":"","nativeplace":"","email":""}],"otherinfo":{"health":{"value":"","id":""},"allergy":null,"register":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"relation":{"value":"","id":""},"resident":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"isstay":0,"likes":"","report":"","focus":"","hope":"","remark":"","clueimginfo":[],"cluestudentid":""},"cluestudentcustfieldinfo":[{"name":"Field6","fieldname":"申请课程","value":"","valuename":"","type":1,"fieldtype":4}]}</t>
+  </si>
+  <si>
+    <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "46388280007005"}</t>
+  </si>
+  <si>
+    <t>case_003</t>
+  </si>
+  <si>
+    <t>新增学生</t>
+  </si>
+  <si>
+    <t>/Pc.do?appid=1&amp;action=addstudent</t>
+  </si>
+  <si>
+    <t>{"baseinfo":{"id":"","sex":1,"photo":"","smstel":"17834532535","birthday":"2001-06-20","nationality":"1","nation":"32","certificatestype":"4","certificatesnumber":"519349834264727645","areacode":"+86","certificNum":"","campusid":"46228750007005"},"extinfo":{"registryprovince":"140000","registrycity":"140500","registryarea":"140502","registryaddress":"山西挖矿我最强","familyprovince":"110000","familycity":"110100","familyarea":"110105","familyaddress":"北京欢迎您","isstay":1,"istakebus":1,"healthcondition":"8","expectation":"结婚生子","remark":"有车有房","allergy":"青霉素","relation":"84","likes":"我喜欢打球","report":"我喜欢吃冰棍","follow":"学校美女多吗？","studentimg":[{"url":"https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/202006/fb32eaa2d667496d898fdcb6aea530f0.png","describe":"招生二维码"},{"url":"https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/202006/c310242f707f47368e7d32aa601f69d2.png","describe":"回归人员统计"}]},"contactinfos":[{"calltype":"13","name":"栗红色","areacode":"+86","smstel":"17834535435","education":"20","workcompany":"国家税务局","nativeplace":"湖南省长沙市岳麓区家和园","jobname":"税务检查员","email":"12344@qq.com"}],"schoolrollinfo":{"schoolrollnumber":"","serial":"","academicid":"1002190018888","inyear":2020,"indate":"2020-06-17","gradeid":"1002310018888","datafrom":"1000270018888","startschoolway":"88","majorid":"1000200018889"},"studentcustfieldinfo":[]}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>case_005</t>
+  </si>
+  <si>
+    <t>搜索学生名称</t>
+  </si>
+  <si>
+    <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+  </si>
+  <si>
+    <t>{"employeeids":[],"adviserids":[],"campusids":["46228750007005"],"page":{"recordcount":40,"pagesize":10,"pageindex":1,"totalpage":4,"sortfield":"createtime","isdesc":true},"processnodeids":[],"starttime":"","endtime":"","status":[0,1,2,3,4,5,6,7,8],"majorid":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":["1002120018888","1002190018888","1002210018888","1003230018888","1314120007005","1848560007005","4517530007005","4789570007005","46218770007005","46257040007005"],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0}</t>
+  </si>
+  <si>
+    <t>case_004</t>
+  </si>
+  <si>
+    <t>审核线索</t>
+  </si>
+  <si>
+    <t>/Pc.do?appid=1&amp;action=opclueprocessinstance</t>
   </si>
 </sst>
 </file>
@@ -131,83 +172,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,52 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +513,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +568,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,40 +608,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -585,131 +626,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1083,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1158,8 +1199,8 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1214,7 +1255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1" spans="1:13">
+    <row r="2" ht="27.6" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1241,6 +1282,251 @@
       <c r="K2" s="2"/>
       <c r="M2" t="s">
         <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" ht="27.6" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -38,6 +38,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -45,7 +52,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -53,6 +76,21 @@
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,14 +105,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,6 +136,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -104,9 +150,17 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,60 +171,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -181,25 +181,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,85 +283,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,67 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,6 +372,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -386,15 +406,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,15 +425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -434,6 +436,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,36 +472,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -490,131 +490,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="21" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1089,7 +1089,7 @@
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> {"username":"admin@schooldevp","password":"Qrz888888"}</t>
+          <t xml:space="preserve"> {"username":"admin@schooltest1","password":"888888","website":"https://ischool.xiaogj.com"}</t>
         </is>
       </c>
       <c r="K2" s="2" t="n"/>
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1236,7 +1236,7 @@
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>{"baseinfo":{"campusid":"46228750007005","id":"","name":"但是","sex":{"id":""},"birthday":"","nationality":{"id":"","value":""},"nation":{"value":"","id":""},"idtype":{"value":"","id":""},"cardid":"","govstudentid":"","avatar":"","status":1,"areacode":"+86","nodebranch":[]},"recruitinfo":{"startschoolway":{"id":"","value":""},"majorid":"","nowschool":"","nowgrade":{"value":"","id":""},"postgrade":{"value":"","id":"46218800007005"},"hopetime":"","recommender":"","recommendername":"","semester":{"value":"","id":""},"cluestatus":{"value":"","id":""},"cluecategory":{"value":"","id":""},"employee":{"value":"","id":""},"teacherName":"","intention":0,"datafrom":{"value":"","id":""},"cluestudentid":"","createuser":{"value":"","id":""},"createtime":""},"familyinfos":[{"name":"","areacode":"+86","appellation":{"id":""},"phone":"","education":{"value":"","id":""},"workin":"","jobname":"","nativeplace":"","email":""}],"otherinfo":{"health":{"value":"","id":""},"allergy":null,"register":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"relation":{"value":"","id":""},"resident":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"isstay":0,"likes":"","report":"","focus":"","hope":"","remark":"","clueimginfo":[],"cluestudentid":""},"cluestudentcustfieldinfo":[{"name":"Field6","fieldname":"申请课程","value":"","valuename":"","type":1,"fieldtype":4}]}</t>
+          <t>{"baseinfo":{"campusid":"999990007000","id":"","name":"但是","sex":{"id":""},"birthday":"","nationality":{"id":"","value":""},"nation":{"value":"","id":""},"idtype":{"value":"","id":""},"cardid":"","govstudentid":"","avatar":"","status":1,"areacode":"+86","nodebranch":[]},"recruitinfo":{"startschoolway":{"id":"","value":""},"majorid":"","nowschool":"","nowgrade":{"value":"","id":""},"postgrade":{"value":"","id":"46218800007005"},"hopetime":"","recommender":"","recommendername":"","semester":{"value":"","id":""},"cluestatus":{"value":"","id":""},"cluecategory":{"value":"","id":""},"employee":{"value":"","id":""},"teacherName":"","intention":0,"datafrom":{"value":"","id":""},"cluestudentid":"","createuser":{"value":"","id":""},"createtime":""},"familyinfos":[{"name":"","areacode":"+86","appellation":{"id":""},"phone":"","education":{"value":"","id":""},"workin":"","jobname":"","nativeplace":"","email":""}],"otherinfo":{"health":{"value":"","id":""},"allergy":null,"register":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"relation":{"value":"","id":""},"resident":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"isstay":0,"likes":"","report":"","focus":"","hope":"","remark":"","clueimginfo":[],"cluestudentid":""},"cluestudentcustfieldinfo":[{"name":"Field6","fieldname":"申请课程","value":"","valuename":"","type":1,"fieldtype":4}]}</t>
         </is>
       </c>
       <c r="K2" s="2" t="n"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "46388280007005"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1013500025134"}</t>
         </is>
       </c>
     </row>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -1247,7 +1247,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1013500025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1013540025134"}</t>
         </is>
       </c>
     </row>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -678,6 +678,74 @@
     <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1247,7 +1315,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1013540025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1014690025134"}</t>
         </is>
       </c>
     </row>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,7 +45,105 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -59,38 +157,9 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -102,75 +171,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -181,25 +181,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,157 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,11 +377,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -391,6 +389,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,17 +423,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,35 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +478,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -490,10 +490,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
@@ -506,115 +506,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="18" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="31" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1013540025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1024690025134"}</t>
         </is>
       </c>
     </row>
@@ -1264,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" ht="42" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>case_003</t>
@@ -1381,14 +1381,15 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>/Pc.do?appid=1&amp;action=addstudent</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{"baseinfo":{"id":"","sex":1,"photo":"","smstel":"17834532535","birthday":"2001-06-20","nationality":"1","nation":"32","certificatestype":"4","certificatesnumber":"519349834264727645","areacode":"+86","certificNum":"","campusid":"46228750007005"},"extinfo":{"registryprovince":"140000","registrycity":"140500","registryarea":"140502","registryaddress":"山西挖矿我最强","familyprovince":"110000","familycity":"110100","familyarea":"110105","familyaddress":"北京欢迎您","isstay":1,"istakebus":1,"healthcondition":"8","expectation":"结婚生子","remark":"有车有房","allergy":"青霉素","relation":"84","likes":"我喜欢打球","report":"我喜欢吃冰棍","follow":"学校美女多吗？","studentimg":[{"url":"https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/202006/fb32eaa2d667496d898fdcb6aea530f0.png","describe":"招生二维码"},{"url":"https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/202006/c310242f707f47368e7d32aa601f69d2.png","describe":"回归人员统计"}]},"contactinfos":[{"calltype":"13","name":"栗红色","areacode":"+86","smstel":"17834535435","education":"20","workcompany":"国家税务局","nativeplace":"湖南省长沙市岳麓区家和园","jobname":"税务检查员","email":"12344@qq.com"}],"schoolrollinfo":{"schoolrollnumber":"","serial":"","academicid":"1002190018888","inyear":2020,"indate":"2020-06-17","gradeid":"1002310018888","datafrom":"1000270018888","startschoolway":"88","majorid":"1000200018889"},"studentcustfieldinfo":[]}</t>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>{"_t_":1605253150826,"baseinfo":{"id":"","name":"李少辉测试","sex":0,"photo":"","smstel":"18793536464","birthday":"","nationality":"","nation":"","certificatestype":"","certificatesnumber":"","areacode":"+86","politicalstatusid":"","educationlevelid":"","paydate":"","directionid":"","age":"","povertyid":"","campusid":"1040025134"},"extinfo":{"employee":{"id":"","value":""},"registryprovince":"","registrycity":"","registryarea":"","registryaddress":"","familyprovince":"","familycity":"","familyarea":"","familyaddress":"","isstay":null,"istakebus":null,"healthcondition":"","expectation":"","remark":"","allergy":"","relation":"","likes":"","report":"","follow":"","studentimg":[],"scoreimginfos":[],"householdtypeid":"","bankaccount":""},"contactinfos":[{"calltype":"","name":"","areacode":"+86","smstel":"","education":"","workcompany":"","nativeplace":"","jobname":"","email":"","idcard":""}],"schoolrollinfo":{"schoolrollnumber":"","serial":"","academicid":"1000020025134","inyear":null,"indate":"","gradeid":"1000030025134","originalclassid":"","datafrom":"","startschoolway":"","majorid":"","graduateschool":"","skilllevelid":"","educationalid":"","originagraduategradeid":"","originagraduatedate":"","originagraduatewayid":"","inschoolrolldate":"","reportdate":""},"studentcustfieldinfo":[],"insuranceinfo":{"campusstartdate":"","campusenddate":"","casualtystartdate":"","casualtyenddate":"","liabilitystartdate":"","liabilityenddate":""}}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1399,6 +1400,11 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1554,7 @@
       <c r="K2" s="2" t="n"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -3,13 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="21" autoFilterDateGrouping="1" firstSheet="16" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="add_clue" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="add_student" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="check_clue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="add_teacher" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="check_clue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="admit_clue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="delete_clue" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="add_employee" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="creat_clue_order" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="transfer_to_advanced_clue" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="transfer_to_clue_pond" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="grab_clue" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="allot_teacher" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="add_advanced_clue" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="transfer_to_advanced_cluepond" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="creat_student_order" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="sign_up_from_pc" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="sign_up_from_mobile" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="set_up_second_discount" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="receieve_money" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="abandon_order" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="abandon_receipt" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="edit_teacher" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -45,23 +64,23 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -84,15 +103,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,8 +116,39 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,29 +163,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -157,18 +177,17 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,7 +200,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,31 +254,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,115 +296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +320,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,20 +394,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,6 +420,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,11 +465,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,38 +475,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +497,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="22" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -490,139 +509,160 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="19" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="10"/>
   </cellXfs>
@@ -948,7 +988,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.883333333333329"/>
     <col customWidth="1" max="2" min="2" style="1" width="13.8833333333333"/>
@@ -960,8 +1000,8 @@
     <col customWidth="1" max="9" min="9" style="1" width="6.33333333333333"/>
     <col customWidth="1" max="10" min="10" style="1" width="34.5583333333333"/>
     <col customWidth="1" max="11" min="11" style="1" width="9.55833333333333"/>
-    <col customWidth="1" max="12" min="12" style="2" width="34.2166666666667"/>
-    <col customWidth="1" max="13" min="13" style="2" width="8.883333333333329"/>
+    <col customWidth="1" max="12" min="12" style="3" width="34.2166666666667"/>
+    <col customWidth="1" max="13" min="13" style="3" width="8.883333333333329"/>
     <col customWidth="1" max="14" min="14" style="1" width="9.55833333333333"/>
     <col customWidth="1" max="15" min="15" style="1" width="8.883333333333329"/>
     <col customWidth="1" max="16" min="16" style="1" width="25.8833333333333"/>
@@ -1024,12 +1064,12 @@
           <t>期望方式</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>期望结果</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1081,18 +1121,18 @@
           <t>write</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="10" t="inlineStr">
         <is>
           <t>/Pc.do?appid=1&amp;action=login</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> {"username":"admin@schooltest1","password":"888888","website":"https://ischool.xiaogj.com"}</t>
         </is>
       </c>
-      <c r="K2" s="2" t="n"/>
+      <c r="K2" s="3" t="n"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -1102,6 +1142,2847 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>搜索线索名称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611207329022,"employeeids":[],"adviserids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":17,"pagesize":10,"pageindex":1,"totalpage":2,"sortfield":"createtime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":1,"cluetabletype":1,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0,"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061800025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:25", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:25", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_012</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>线索转移到进阶线索</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=batchupdatecluepersonliable</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611627798368,
+    "ids": [
+        "1061140025134"
+    ],
+    "personliableid": "",
+    "isadvancedclue": 0,
+    "module": 1,
+    "campusid": "1040025134",
+    "cluetabletype": 1
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>搜索线索名称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611207329022,"employeeids":[],"adviserids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":17,"pagesize":10,"pageindex":1,"totalpage":2,"sortfield":"createtime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":1,"cluetabletype":1,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0,"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061800025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:25", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:25", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluesco</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_013</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>线索转移到线索池</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=movecluepool</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611628553255,
+    "ids": [
+        "1061080025134"
+    ],
+    "module": 1
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取线索池列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611628875746,"employeeids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":23,"pagesize":10,"pageindex":1,"totalpage":3,"sortfield":"updatetime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":3,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1060150025134", "name": "\u6731\u7953", "phone": "13547746034", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/25 23:14", "createtime": "2021/1/25 23:14", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060150025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060150025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/25 23:14", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/25 23:14", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060160025134", "studentclueid": "1060150025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060170025134", "studentclueid": "1060150025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060150025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1060180025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/25 23:14", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1009280025134", "name": "\u82cf\u6934\u6844", "phone": "13759046912", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "", "createtime": "2020/10/16 16:51", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1009280025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1009280025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1009290025134", "studentclueid": "1009280025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1009300025134", "studentclueid": "1009280025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1009280025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1009310025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2020/10/16 16:51", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1008120025134", "name": "\u53f2\u9654", "phone": "13730050086", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "", "createtime": "2020/10/14 10:52", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1008120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1008120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1008130025134", "studentclueid": "1008120025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1008140025134", "studentclueid": "1008120025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1008120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1008150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2020/10/14 10:52", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1008070025134", "name": "\u848b\u94bd\u9cc4", "phone": "15872084102", "period": "\u5c0f\u5b66", "grade": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "\u6296\u97f3", "intention": 5, "adviser": "shaohui1", "comtime": "", "createtime": "2020/10/14 10:50", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 1, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "1000030025134", "nation": "\u85cf\u65cf", "recommender": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u63a8\u8350\u4eba\u8f93\u5165", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1008070025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "1000960025134", "valuename": "\u4e0b\u62c9\u4e8c", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1008070025134", "nowschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u73b0\u5c31\u8bfb\u5b66\u6821\u8f93\u5165", "nowgrade": {"id": "13", "value": "\u5e7c\u513f\u56ed\u5927\u73ed", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "2020-10-01", "recommender": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u63a8\u8350\u4eba\u8f93\u5165", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 5, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "90", "value": "\u63d2\u73ed", "flag": 0}, "majorid": "1000860025134", "majorname": "\u82f1\u8bed", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1008080025134", "studentclueid": "1008070025134", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "13470521293", "education": {"id": "20", "value": "\u7855\u58eb", "flag": 0}, "workin": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1008090025134", "studentclueid": "1008070025134", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "18757712160", "education": {"id": "20", "value": "\u7855\u58eb", "flag": 0}, "workin": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1008070025134", "health": {"id": "10", "value": "\u6709\u751f\u7406\u7f3a\u9677", "flag": 0}, "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "register": {"province": {"id": "130000", "value": "\u6cb3\u5317\u7701", "flag": 0}, "city": {"id": "130900", "value": "\u5510\u5c71\u5e02", "flag": 0}, "area": {"id": "130904", "value": "\u5f00\u5e73\u533a", "flag": 0}, "address": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740"}, "relation": {"id": "84", "value": "\u7236\u6bcd", "flag": 0}, "resident": {"province": {"id": "130000", "value": "\u6cb3\u5317\u7701", "flag": 0}, "city": {"id": "130900", "value": "\u5510\u5c71\u5e02", "flag": 0}, "area": {"id": "130904", "value": "\u5f00\u5e73\u533a", "flag": 0}, "address": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740"}, "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "focus": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "hope": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "clueimginfo": [], "relationcode": "Parent", "isstay": 1, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "2010-02-02", "nationality": {"id": "97", "value": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "flag": 0}, "idtype": {"id": "4", "value": "\u8eab\u4efd\u8bc1", "flag": 0}, "cardid": "328330196910083719", "govstudentid": "NK4708868", "semester": "2021\u6625\u5b63\u5b66\u671f", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1008100025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "1000020025134", "ishangup": 0, "areacode": null, "updatetime": "2020/10/14 10:50", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "13", "nowgrade": "\u5e7c\u513f\u56ed\u5927\u73ed", "parentupdatetime": "2020/10/14 10:50", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "121", "value": "\u5171\u4ea7\u515a\u5458", "flag": 0}, "educationlevel": {"id": "124", "value": "\u521d\u4e2d", "flag": 0}, "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevel": {"id": "135", "value": "\u6280\u5e08", "flag": 0}, "educational": {"id": "1001040025134", "value": "\u56db\u5e74\u5b66\u5236", "flag": 0}, "householdtype": {"id": "1000920025134", "value": "\u519c\u6751\u6237\u53e3", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1007740025134", "name": "\u5b5f\u9f0b\u5e18", "phone": "13391835352", "period": "\u5c0f\u5b66", "grade": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "\u6296\u97f3", "intention": 5, "adviser": "shaohui1", "comtime": "", "createtime": "2020/10/14 9:50", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 1, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "1000030025134", "nation": "\u85cf\u65cf", "recommender": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u63a8\u8350\u4eba\u8f93\u5165", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1007740025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "1000960025134", "valuename": "\u4e0b\u62c9\u4e8c", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1007740025134", "nowschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u73b0\u5c31\u8bfb\u5b66\u6821\u8f93\u5165", "nowgrade": {"id": "13", "value": "\u5e7c\u513f\u56ed\u5927\u73ed", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "2020-10-01", "recommender": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u63a8\u8350\u4eba\u8f93\u5165", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 5, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "90", "value": "\u63d2\u73ed", "flag": 0}, "majorid": "1000860025134", "majorname": "\u82f1\u8bed", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1007750025134", "studentclueid": "1007740025134", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "13107739728", "education": {"id": "20", "value": "\u7855\u58eb", "flag": 0}, "workin": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1007760025134", "studentclueid": "1007740025134", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "15986130236", "education": {"id": "20", "value": "\u7855\u58eb", "flag": 0}, "workin": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1007740025134", "health": {"id": "10", "value": "\u6709\u751f\u7406\u7f3a\u9677", "flag": 0}, "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "register": {"province": {"id": "130000", "value": "\u6cb3\u5317\u7701", "flag": 0}, "city": {"id": "130900", "value": "\u5510\u5c71\u5e02", "flag": 0}, "area": {"id": "130904", "value": "\u5f00\u5e73\u533a", "flag": 0}, "address": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740"}, "relation": {"id": "84", "value": "\u7236\u6bcd", "flag": 0}, "resident": {"province": {"id": "130000", "value": "\u6cb3\u5317\u7701", "flag": 0}, "city": {"id": "130900", "value": "\u5510\u5c71\u5e02", "flag": 0}, "area": {"id": "130904", "value": "\u5f00\u5e73\u533a", "flag": 0}, "address": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740"}, "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "focus": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "hope": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "clueimginfo": [], "relationcode": "Parent", "isstay": 1, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "2010-02-02", "nationality": {"id": "97", "value": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "flag": 0}, "idtype": {"id": "4", "value": "\u8eab\u4efd\u8bc1", "flag": 0}, "cardid": "128685198712029379", "govstudentid": "RM2939103", "semester": "2021\u6625\u5b63\u5b66\u671f", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1007770025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "1000020025134", "ishangup": 0, "areacode": null, "updatetime": "2020/10/14 9:50", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "13", "nowgrade": "\u5e7c\u513f\u56ed\u5927\u73ed", "parentupdatetime": "2020/10/14 9:50", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "121", "value": "\u5171\u4ea7\u515a\u5458", "flag": 0}, "educationlevel": {"id": "124", "value": "\u521d\u4e2d", "flag": 0}, "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevel": {"id": "135", "value": "\u6280\u5e08", "flag": 0}, "educational": {"id": "1001040025134", "value": "\u56db\u5e74\u5b66\u5236", "flag": 0}, "householdtype": {"id": "1000920025134", "value": "\u519c\u6751\u6237\u53e3", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": nul</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_014</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>抢线索</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=grabclue</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611629118352,
+    "ids": [
+        "1061080025134"
+    ],
+    "module": 3,
+    "campusid": "1040025134"
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取线索池列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611628875746,"employeeids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":23,"pagesize":10,"pageindex":1,"totalpage":3,"sortfield":"updatetime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":3,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "phone": "14763890454", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/20 13:15", "createtime": "2021/1/20 13:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1055210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1055210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/20 13:15", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1055220025134", "studentclueid": "1055210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1055230025134", "studentclueid": "1055210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1055210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1055240025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/20 13:15", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1054810025134", "name": "\u535e\u86f4\u4f88", "phone": "18992932911", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/19 18:09", "createtime": "2021/1/19 18:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1054810025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1054810025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/19 18:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1054820025134", "studentclueid": "1054810025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1054830025134", "studentclueid": "1054810025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1054810025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1054840025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/19 18:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1053220025134", "name": "\u90d1\u878d\u5486", "phone": "18604418763", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/12 23:54", "createtime": "2021/1/12 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1053220025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1053220025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/12 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1053230025134", "studentclueid": "1053220025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1053240025134", "studentclueid": "1053220025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1053220025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1053250025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/12 23:54", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1052650025134", "name": "\u4e25\u867e", "phone": "15720867424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/11 23:54", "createtime": "2021/1/11 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1052650025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1052650025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/11 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1052660025134", "studentclueid": "1052650025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1052670025134", "studentclueid": "1052650025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1052650025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1052680025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/11 23:54", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1051970025134", "name": "\u51af\u62d8", "phone": "13402471461", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/11 12:55", "createtime": "2021/1/11 12:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1051970025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1051970025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/11 12:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1051980025134", "studentclueid": "1051970025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1051990025134", "studentclueid": "1051970025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1051970025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1052000025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/11 12:55", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1050980025134", "name": "\u6f58\u62f7", "phone": "13090721112", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/9 23:54", "createtime": "2021/1/9 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1050980025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1050980025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/9 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1050990025134", "studentclueid": "1050980025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1051000025134", "studentclueid": "1050980025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1050980025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "proces</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_015</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>设置招生老师</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=batchdistribution</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611630266047,
+    "ids": [
+        "1060150025134"
+    ],
+    "employeeid": "1001090025134",
+    "module": 3,
+    "campusid": "1040025134",
+    "cluetabletype": 1
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="354" r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>case_016</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>新增进阶线索</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=addcluestudent</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611626012024,
+    "baseinfo": {
+        "politicalstatus": {
+            "id": "",
+            "value": ""
+        },
+        "direction": {
+            "id": "",
+            "value": ""
+        },
+        "educationlevel": {
+            "id": "",
+            "value": ""
+        },
+        "campusid": "1040025134",
+        "id": "",
+        "name": "测试",
+        "sex": {
+            "id": ""
+        },
+        "phone": "12873489242",
+        "birthday": "",
+        "nationality": {
+            "id": "",
+            "value": ""
+        },
+        "nation": {
+            "value": "",
+            "id": ""
+        },
+        "idtype": {
+            "value": "",
+            "id": ""
+        },
+        "cardid": "",
+        "govstudentid": "",
+        "avatar": "",
+        "status": 1,
+        "areacode": "+86",
+        "nodebranch": [],
+        "enrollschool": {
+            "id": "",
+            "value": ""
+        },
+        "enrolldepartment": {
+            "id": "",
+            "value": ""
+        },
+        "enrollmajor": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "recruitinfo": {
+        "startschoolway": {
+            "id": "",
+            "value": ""
+        },
+        "originagraduategrade": {
+            "id": "",
+            "value": ""
+        },
+        "majorid": "",
+        "graduateschool": "",
+        "skilllevel": {
+            "id": "",
+            "value": ""
+        },
+        "educational": {
+            "id": "",
+            "value": ""
+        },
+        "nowschool": "",
+        "nowgrade": {
+            "value": "",
+            "id": ""
+        },
+        "postgrade": {
+            "value": "",
+            "id": ""
+        },
+        "hopetime": "",
+        "recommender": "",
+        "recommendername": "",
+        "semester": {
+            "value": "",
+            "id": ""
+        },
+        "cluestatus": {
+            "value": "",
+            "id": ""
+        },
+        "cluecategory": {
+            "value": "",
+            "id": ""
+        },
+        "employee": {
+            "value": "shaohui2",
+            "id": "1001090025134"
+        },
+        "teacherName": "",
+        "datafrom": {
+            "value": "",
+            "id": ""
+        },
+        "cluestudentid": "",
+        "createuser": {
+            "value": "",
+            "id": ""
+        },
+        "createtime": ""
+    },
+    "familyinfos": [
+        {
+            "disabled": true,
+            "name": "阿斯蒂芬撒",
+            "areacode": "+86",
+            "appellation": {
+                "id": "12"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        },
+        {
+            "disabled": true,
+            "name": "大",
+            "areacode": "+86",
+            "appellation": {
+                "id": "13"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        }
+    ],
+    "otherinfo": {
+        "householdtype": {
+            "id": "",
+            "value": ""
+        },
+        "health": {
+            "value": "",
+            "id": ""
+        },
+        "allergy": null,
+        "register": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "relation": {
+            "value": "",
+            "id": ""
+        },
+        "resident": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "isstay": 0,
+        "likes": "",
+        "report": "",
+        "focus": "",
+        "hope": "",
+        "remark": "",
+        "clueimginfo": [],
+        "cluescoreimginfo": [],
+        "cluestudentid": ""
+    },
+    "cluestudentcustfieldinfo": [
+        {
+            "name": "Field1",
+            "fieldname": "自定义字段1",
+            "value": "",
+            "valuename": "",
+            "type": 1,
+            "fieldtype": 4
+        }
+    ],
+    "module": 2
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062560025134"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取进阶线索池列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611632145941,
+    "employeeids": [],
+    "adviserids": [],
+    "originalemployeeids": [],
+    "originalpersonliableids": [],
+    "personliableids": [],
+    "createuserids": [],
+    "campusids": [
+        "1040025134"
+    ],
+    "page": {
+        "recordcount": 2,
+        "pagesize": 10,
+        "pageindex": 1,
+        "totalpage": 1,
+        "sortfield": "updatetime",
+        "isdesc": true
+    },
+    "LableInofIds": [],
+    "processnodeids": [],
+    "module": 4,
+    "status": [
+        0,
+        1,
+        2,
+        3,
+        4,
+        5,
+        6,
+        7,
+        8
+    ],
+    "majorid": "",
+    "keyword": "",
+    "teacher": [],
+    "adviser": [],
+    "personliable": [],
+    "originalpersonliable": [],
+    "nowGrades": "",
+    "postgrade": "",
+    "postperiod": [],
+    "processnode": [],
+    "processinstancestatus": [],
+    "startschoolway": [],
+    "ismine": 0,
+    "politicalstatusids": [],
+    "educationlevelids": [],
+    "skilllevelids": [],
+    "educationalids": [],
+    "householdtypeids": [],
+    "lableInfos": [],
+    "islock": [],
+    "enrollschool": [],
+    "enrolldepartment": [],
+    "enrollmajor": [],
+    "createuser": [],
+    "originalemployee": [],
+    "intention": [],
+    "clueadvancedstageids": [],
+    "commontime": [],
+    "nextcomtime": [],
+    "createtime": [],
+    "shiftpersonliabletime": [],
+    "personliableidupdatetime": [],
+    "cluesource": [],
+    "custfieldvalue": ""
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:15", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:15", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 16:15", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 16:15", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061200025134", "name": "\u5510\u64ae\u8f72", "phone": "13201298017", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:01", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061200025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061200025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:01", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:29", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061210025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061220025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061200025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061230025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:01", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061140025134", "name": "\u4efb\u5bb8\u864e", "phone": "13241043937", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061140025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061140025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:28", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061150025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061160025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061140025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061170025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:00", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}], "page": {"pageindex": 1, "totalpage": 1, "recordcount": 3}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_017</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>设置咨询师</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=batchupdatecluepersonliable</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611631513427,
+    "ids": [
+        "1061460025134"
+    ],
+    "personliableid": "1001070025134",
+    "isadvancedclue": 1,
+    "module": 2,
+    "campusid": "1040025134",
+    "cluetabletype": 1
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>学生列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentlistpublic</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611639392433,
+    "campusids": [
+        "1040025134"
+    ],
+    "page": {
+        "recordcount": 0,
+        "pagesize": 10,
+        "pageindex": 1,
+        "totalpage": 1
+    },
+    "LableInofIds": [],
+    "employeeids": [],
+    "query": "",
+    "gradeid": "",
+    "classid": "",
+    "classstatus": 0,
+    "status": [
+        1,
+        2,
+        3,
+        6
+    ],
+    "sex": [
+        1,
+        2,
+        0
+    ],
+    "nation": "",
+    "registryProvince": "",
+    "registryCity": "",
+    "registryArea": "",
+    "politicalstatusids": [],
+    "educationlevelids": [],
+    "skilllevelids": [],
+    "educationalids": [],
+    "householdtypeids": [],
+    "lableInfos": [],
+    "isstay": -1,
+    "istakebus": -1,
+    "employee": [],
+    "enrollschool": [],
+    "enrolldepartment": [],
+    "enrollmajor": [],
+    "schoolrolltime": []
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"studentid": "1062440025134", "baseinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13220017137", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 16:11:16", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1062670025134", "studentid": "1062440025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 16:11:17", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1062440025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1062700025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1062440025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1062710025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1062440025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-26", "id": "1062680025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-26 16:11:17", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1062500025134", "baseinfo": {"id": "1062500025134", "name": "\u660e\u9ab7\u6d35", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 16:09:53", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1062510025134", "studentid": "1062500025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1062500025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1062540025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1062500025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1062520025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1062550025134", "studentid": "1062500025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1060660025134", "baseinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-26", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1060670025134", "studentid": "1060660025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1060660025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1060700025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1060660025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1060680025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "1060710025134", "studentid": "1060660025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1060270025134", "baseinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13236608002", "birthday": "2014-08-18", "nationality": "97", "nation": "30", "certificatestype": "4", "certificatesnumber": "237042199806086936", "status": 1, "createtime": "2021-01-25 23:31:49", "createuserid": "", "studentclassstatus": 0, "nationalityname": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "nationname": "\u85cf\u65cf", "certificatestypename": "\u8eab\u4efd\u8bc1", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "121", "politicalstatusname": "\u5171\u4ea7\u515a\u5458", "educationlevelid": "124", "educationlevelname": "\u521d\u4e2d", "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "lableinfolist": [], "paydate": "", "directionid": "1000940025134", "directionname": "UC", "age": "22", "povertyid": "", "povertyname": "", "employeeid": "1001070025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "130000", "registrycity": "130900", "registryarea": "130904", "registryaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740", "familyprovince": "130000", "familycity": "130900", "familyarea": "130904", "familyaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740", "isstay": 1, "istakebus": 0, "healthcondition": "10", "awards": "", "expectation": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "relation": "84", "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "studentimg": [], "registryprovincename": "\u6cb3\u5317\u7701", "registrycityname": "\u5510\u5c71\u5e02", "registryareaname": "\u5f00\u5e73\u533a", "familyprovincename": "\u6cb3\u5317\u7701", "familycityname": "\u5510\u5c71\u5e02", "familyareaname": "\u5f00\u5e73\u533a", "healthconditionname": "\u6709\u751f\u7406\u7f3a\u9677", "relationname": "\u7236\u6bcd", "follow": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "id": "1060420025134", "studentid": "1060270025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "1000920025134", "householdtypename": "\u519c\u6751\u6237\u53e3", "bankaccount": "", "employee": {"id": "1001070025134", "value": "shaohui1", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 23:31:50", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1060270025134", "calltype": "12", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "15735893631", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "calltypename": "\u7238\u7238", "educationname": "\u7855\u58eb", "id": "1060450025134", "appellationcode": "Father", "areacode": "+86", "idcard": "632141198705218981"}, {"studentid": "1060270025134", "calltype": "13", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "13923018324", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "calltypename": "\u5988\u5988", "educationname": "\u7855\u58eb", "id": "1060460025134", "appellationcode": "Mother", "areacode": "+86", "idcard": "239934197606174706"}], "schoolrollinfo": {"studentid": "1060270025134", "schoolrollnumber": "KT4961524", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-25", "id": "1060430025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001160025134", "datafromname": "UC", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": "\u82f1\u8bed", "majorid": "1000860025134", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevelid": "135", "skilllevelname": "\u6280\u5e08", "educationalid": "1001040025134", "educationalname": "\u56db\u5e74\u5b66\u5236", "originagraduategradeid": "154", "originagraduategradename": "\u9ad8\u4e8c", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 23:31:50", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1013090025134", "baseinfo": {"id": "1013090025134", "name": "\u4efb\u80f8", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "14744703147", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 18:16:10", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "10025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059710025134", "studentid": "1013090025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "10025134", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 18:16:10", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1013090025134", "calltype": "12", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1059740025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1013090025134", "calltype": "13", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1059750025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1013090025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-25", "id": "1059720025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 18:16:10", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1017210025134", "baseinfo": {"id": "1017210025134", "name": "\u62cd\u89c6\u9891", "sex": 2, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15464845414", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 18:13:41", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 1, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "10025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 1, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059650025134", "studentid": "1017210025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "10025134", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 18:13:41", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1017210025134", "calltype": "12", "name": "\u7238\u7238\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1059680025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1017210025134", "calltype": "13", "name": "\u5988\u5988\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1059690025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1017210025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-25", "id": "1059660025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001150025134", "datafromname": "\u6296\u97f3", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 18:13:41", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1059550025134", "baseinfo": {"id": "1059550025134", "name": "\u7c73\u5949", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-24 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059560025134", "studentid": "1059550025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1059550025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1059590025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1059550025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1059570025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_018</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>创建学生订单</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=oporder</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611639498179,
+    "optype": 1,
+    "campusid": "1040025134",
+    "orderinfo": {
+        "lessmoney": 0,
+        "paymoney": 0,
+        "discountlist": [],
+        "ordermoney": 3456.01,
+        "remark": "全日智API测试学费",
+        "ordertype": 1,
+        "productinfos": [
+            {
+                "productid": "1016330025134",
+                "productname": "测试",
+                "buyamount": 1,
+                "buymoney": 0.01,
+                "unitid": "1000590025134",
+                "typeid": "1050025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 0.01,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            },
+            {
+                "productid": "1001140025134",
+                "productname": "一年级补课费",
+                "buyamount": 1,
+                "buymoney": 2000,
+                "unitid": "1000590025134",
+                "typeid": "1001130025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 2000,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            },
+            {
+                "productid": "1001120025134",
+                "productname": "一年级教材费",
+                "buyamount": 1,
+                "buymoney": 1456,
+                "unitid": "1000590025134",
+                "typeid": "1070025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 1456,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            }
+        ],
+        "sectionId": "1017190025134"
+    },
+    "savetype": 0,
+    "objectids": [
+        "1060660025134"
+    ],
+    "orderstudentlist": [
+        {
+            "id": "1060660025134",
+            "isnewstudent": 0
+        }
+    ],
+    "studentgradeids": [
+        "1000030025134"
+    ],
+    "iscompel": 1,
+    "iscompelsection": 1,
+    "isPush": 0
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062860025134", "isexitstudentids": []}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_019</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>PC端报名</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=addcluestudentpublic</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611642327898,
+    "type": 1,
+    "baseinfo": {
+        "id": "",
+        "name": "度",
+        "direction": {
+            "id": "",
+            "value": ""
+        },
+        "sex": {
+            "id": ""
+        },
+        "phone": "18932424323",
+        "areacode": "+86",
+        "birthday": "",
+        "nationality": {
+            "id": "",
+            "value": ""
+        },
+        "nation": {
+            "value": "",
+            "id": ""
+        },
+        "idtype": {
+            "value": "",
+            "id": ""
+        },
+        "cardid": "",
+        "govstudentid": "",
+        "avatar": "",
+        "status": 1,
+        "campusid": "1040025134",
+        "certificCode": "",
+        "politicalstatus": {
+            "id": "",
+            "value": ""
+        },
+        "educationlevel": {
+            "id": "",
+            "value": ""
+        },
+        "enrollschool": {
+            "id": "",
+            "value": ""
+        },
+        "enrolldepartment": {
+            "id": "",
+            "value": ""
+        },
+        "enrollmajor": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "recruitinfo": {
+        "graduateschool": "",
+        "originagraduategrade": {
+            "id": "",
+            "value": ""
+        },
+        "skilllevel": {
+            "id": "",
+            "value": ""
+        },
+        "educational": {
+            "id": "",
+            "value": ""
+        },
+        "startschoolway": {
+            "value": "",
+            "id": ""
+        },
+        "majorid": "",
+        "nowschool": "",
+        "nowgrade": {
+            "value": "",
+            "id": ""
+        },
+        "postgrade": {
+            "value": "",
+            "id": ""
+        },
+        "semester": {
+            "value": "",
+            "id": ""
+        },
+        "hopetime": "",
+        "recommender": "",
+        "recommendername": "",
+        "cluestatus": {
+            "value": "",
+            "id": ""
+        },
+        "cluecategory": {
+            "value": "",
+            "id": ""
+        },
+        "employee": {
+            "value": "",
+            "id": ""
+        },
+        "teacherName": "",
+        "datafrom": {
+            "value": "",
+            "id": ""
+        },
+        "cluestudentid": "",
+        "createuser": {
+            "value": "",
+            "id": ""
+        },
+        "createtime": ""
+    },
+    "familyinfos": [
+        {
+            "disabled": true,
+            "name": "发撒",
+            "areacode": "+86",
+            "appellation": {
+                "id": "12"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        },
+        {
+            "disabled": true,
+            "name": "发大水",
+            "areacode": "+86",
+            "appellation": {
+                "id": "13"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        }
+    ],
+    "otherinfo": {
+        "health": {
+            "value": "",
+            "id": ""
+        },
+        "allergy": "",
+        "register": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "relation": {
+            "value": "",
+            "id": ""
+        },
+        "resident": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "isstay": 0,
+        "likes": "",
+        "report": "",
+        "focus": "",
+        "hope": "",
+        "remark": "",
+        "clueimginfo": [],
+        "cluescoreimginfo": [],
+        "cluestudentid": "",
+        "householdtype": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "cluestudentcustfieldinfo": [
+        {
+            "name": "Field1",
+            "fieldname": "自定义字段1",
+            "value": "",
+            "valuename": "",
+            "type": 1,
+            "fieldtype": 4
+        }
+    ],
+    "suffix": "schooltest2"
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062960025134"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_020</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>PC端报名</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/mobile/ssx/wx.do?action=addcluestudentpublic&amp;appid=2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611642327898,
+    "type": 1,
+    "baseinfo": {
+        "id": "",
+        "name": "度",
+        "direction": {
+            "id": "",
+            "value": ""
+        },
+        "sex": {
+            "id": ""
+        },
+        "phone": "18932424323",
+        "areacode": "+86",
+        "birthday": "",
+        "nationality": {
+            "id": "",
+            "value": ""
+        },
+        "nation": {
+            "value": "",
+            "id": ""
+        },
+        "idtype": {
+            "value": "",
+            "id": ""
+        },
+        "cardid": "",
+        "govstudentid": "",
+        "avatar": "",
+        "status": 1,
+        "campusid": "1040025134",
+        "certificCode": "",
+        "politicalstatus": {
+            "id": "",
+            "value": ""
+        },
+        "educationlevel": {
+            "id": "",
+            "value": ""
+        },
+        "enrollschool": {
+            "id": "",
+            "value": ""
+        },
+        "enrolldepartment": {
+            "id": "",
+            "value": ""
+        },
+        "enrollmajor": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "recruitinfo": {
+        "graduateschool": "",
+        "originagraduategrade": {
+            "id": "",
+            "value": ""
+        },
+        "skilllevel": {
+            "id": "",
+            "value": ""
+        },
+        "educational": {
+            "id": "",
+            "value": ""
+        },
+        "startschoolway": {
+            "value": "",
+            "id": ""
+        },
+        "majorid": "",
+        "nowschool": "",
+        "nowgrade": {
+            "value": "",
+            "id": ""
+        },
+        "postgrade": {
+            "value": "",
+            "id": ""
+        },
+        "semester": {
+            "value": "",
+            "id": ""
+        },
+        "hopetime": "",
+        "recommender": "",
+        "recommendername": "",
+        "cluestatus": {
+            "value": "",
+            "id": ""
+        },
+        "cluecategory": {
+            "value": "",
+            "id": ""
+        },
+        "employee": {
+            "value": "",
+            "id": ""
+        },
+        "teacherName": "",
+        "datafrom": {
+            "value": "",
+            "id": ""
+        },
+        "cluestudentid": "",
+        "createuser": {
+            "value": "",
+            "id": ""
+        },
+        "createtime": ""
+    },
+    "familyinfos": [
+        {
+            "disabled": true,
+            "name": "发撒",
+            "areacode": "+86",
+            "appellation": {
+                "id": "12"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        },
+        {
+            "disabled": true,
+            "name": "发大水",
+            "areacode": "+86",
+            "appellation": {
+                "id": "13"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        }
+    ],
+    "otherinfo": {
+        "health": {
+            "value": "",
+            "id": ""
+        },
+        "allergy": "",
+        "register": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "relation": {
+            "value": "",
+            "id": ""
+        },
+        "resident": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "isstay": 0,
+        "likes": "",
+        "report": "",
+        "focus": "",
+        "hope": "",
+        "remark": "",
+        "clueimginfo": [],
+        "cluescoreimginfo": [],
+        "cluestudentid": "",
+        "householdtype": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "cluestudentcustfieldinfo": [
+        {
+            "name": "Field1",
+            "fieldname": "自定义字段1",
+            "value": "",
+            "valuename": "",
+            "type": 1,
+            "fieldtype": 4
+        }
+    ],
+    "suffix": "schooltest2"
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1063020025134"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="3"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="12.875"/>
+    <col customWidth="1" max="10" min="10" width="37.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_021</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取订单列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getorderlist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611644556209,
+    "ordercode": "",
+    "studentname": "",
+    "dateRange": "",
+    "paytype": 0,
+    "gradeid": "",
+    "classid": "",
+    "adviser": [],
+    "ispush": [],
+    "sectionIds": [],
+    "lableInfos": [],
+    "adviserids": [],
+    "campusids": [
+        "1040025134"
+    ],
+    "starttime": "",
+    "endtime": "",
+    "LableInofIds": [],
+    "status": 3,
+    "page": {
+        "pageindex": 1,
+        "pagesize": 10,
+        "totalpage": 25,
+        "recordcount": 243
+    }
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:13:47", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 243}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="103" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>case_022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>设置折扣</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getsubjectdiscountmoney</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611645142074,
+    "subjectinfo": {
+        "number": 1,
+        "price": 2244.67,
+        "discountlist": [
+            {
+                "id": "",
+                "name": "直减",
+                "discounttype": 2,
+                "discount": 55,
+                "discountmoney": 0
+            },
+            {
+                "id": "",
+                "name": "折扣",
+                "discounttype": 1,
+                "discount": 66,
+                "discountmoney": 0
+            }
+        ]
+    }
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"id": "", "number": 1, "price": 3456.01, "originalmoney": 3456.01, "discountmoney": 1211.34, "discountlist": [{"id": "", "discounttype": 2, "discount": 55, "discountmoney": 55}, {"id": "", "discounttype": 1, "discount": 66, "discountmoney": 1156.34}], "oughtpay": 2244.67}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="46" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>case_023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>设置二次优惠</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=addorderdiscount</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611644740493,
+    "id": "1061710025134",
+    "discountlist": [
+        {
+            "id": "",
+            "discounttype": 2,
+            "discount": 55,
+            "discountmoney": 55
+        },
+        {
+            "id": "",
+            "discounttype": 1,
+            "discount": 66,
+            "discountmoney": 1156.34
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1114,10 +3995,13 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="10" min="10" width="59.25"/>
+  </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="27.6" r="1" s="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1175,12 +4059,378 @@
           <t>期望方式</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>期望结果</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="354" r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>case_002</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>新增线索</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=addcluestudent</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611626012024,
+    "baseinfo": {
+        "politicalstatus": {
+            "id": "",
+            "value": ""
+        },
+        "direction": {
+            "id": "",
+            "value": ""
+        },
+        "educationlevel": {
+            "id": "",
+            "value": ""
+        },
+        "campusid": "1040025134",
+        "id": "",
+        "name": "测试",
+        "sex": {
+            "id": ""
+        },
+        "phone": "12873489242",
+        "birthday": "",
+        "nationality": {
+            "id": "",
+            "value": ""
+        },
+        "nation": {
+            "value": "",
+            "id": ""
+        },
+        "idtype": {
+            "value": "",
+            "id": ""
+        },
+        "cardid": "",
+        "govstudentid": "",
+        "avatar": "",
+        "status": 1,
+        "areacode": "+86",
+        "nodebranch": [],
+        "enrollschool": {
+            "id": "",
+            "value": ""
+        },
+        "enrolldepartment": {
+            "id": "",
+            "value": ""
+        },
+        "enrollmajor": {
+            "id": "",
+            "value": ""
+        }
+    },
+    "recruitinfo": {
+        "startschoolway": {
+            "id": "",
+            "value": ""
+        },
+        "originagraduategrade": {
+            "id": "",
+            "value": ""
+        },
+        "majorid": "",
+        "graduateschool": "",
+        "skilllevel": {
+            "id": "",
+            "value": ""
+        },
+        "educational": {
+            "id": "",
+            "value": ""
+        },
+        "nowschool": "",
+        "nowgrade": {
+            "value": "",
+            "id": ""
+        },
+        "postgrade": {
+            "value": "",
+            "id": ""
+        },
+        "hopetime": "",
+        "recommender": "",
+        "recommendername": "",
+        "semester": {
+            "value": "",
+            "id": ""
+        },
+        "cluestatus": {
+            "value": "",
+            "id": ""
+        },
+        "cluecategory": {
+            "value": "",
+            "id": ""
+        },
+        "employee": {
+            "value": "shaohui2",
+            "id": "1001090025134"
+        },
+        "teacherName": "",
+        "datafrom": {
+            "value": "",
+            "id": ""
+        },
+        "cluestudentid": "",
+        "createuser": {
+            "value": "",
+            "id": ""
+        },
+        "createtime": ""
+    },
+    "familyinfos": [
+        {
+            "disabled": true,
+            "name": "阿斯蒂芬撒",
+            "areacode": "+86",
+            "appellation": {
+                "id": "12"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        },
+        {
+            "disabled": true,
+            "name": "大",
+            "areacode": "+86",
+            "appellation": {
+                "id": "13"
+            },
+            "phone": "",
+            "education": {
+                "value": "",
+                "id": ""
+            },
+            "workin": "",
+            "jobname": "",
+            "nativeplace": "",
+            "email": ""
+        }
+    ],
+    "otherinfo": {
+        "householdtype": {
+            "id": "",
+            "value": ""
+        },
+        "health": {
+            "value": "",
+            "id": ""
+        },
+        "allergy": null,
+        "register": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "relation": {
+            "value": "",
+            "id": ""
+        },
+        "resident": {
+            "province": {
+                "value": "",
+                "id": ""
+            },
+            "city": {
+                "value": "",
+                "id": ""
+            },
+            "area": {
+                "value": "",
+                "id": ""
+            },
+            "address": ""
+        },
+        "isstay": 0,
+        "likes": "",
+        "report": "",
+        "focus": "",
+        "hope": "",
+        "remark": "",
+        "clueimginfo": [],
+        "cluescoreimginfo": [],
+        "cluestudentid": ""
+    },
+    "cluestudentcustfieldinfo": [
+        {
+            "name": "Field1",
+            "fieldname": "自定义字段1",
+            "value": "",
+            "valuename": "",
+            "type": 1,
+            "fieldtype": 4
+        }
+    ],
+    "module": 1
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062440025134"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1204,12 +4454,12 @@
     <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>case_002</t>
+          <t>case_021</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>获取订单列表</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1228,18 +4478,44 @@
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>/Pc.do?appid=1&amp;action=addcluestudent</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>{"baseinfo":{"campusid":"999990007000","id":"","name":"但是","sex":{"id":""},"birthday":"","nationality":{"id":"","value":""},"nation":{"value":"","id":""},"idtype":{"value":"","id":""},"cardid":"","govstudentid":"","avatar":"","status":1,"areacode":"+86","nodebranch":[]},"recruitinfo":{"startschoolway":{"id":"","value":""},"majorid":"","nowschool":"","nowgrade":{"value":"","id":""},"postgrade":{"value":"","id":"46218800007005"},"hopetime":"","recommender":"","recommendername":"","semester":{"value":"","id":""},"cluestatus":{"value":"","id":""},"cluecategory":{"value":"","id":""},"employee":{"value":"","id":""},"teacherName":"","intention":0,"datafrom":{"value":"","id":""},"cluestudentid":"","createuser":{"value":"","id":""},"createtime":""},"familyinfos":[{"name":"","areacode":"+86","appellation":{"id":""},"phone":"","education":{"value":"","id":""},"workin":"","jobname":"","nativeplace":"","email":""}],"otherinfo":{"health":{"value":"","id":""},"allergy":null,"register":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"relation":{"value":"","id":""},"resident":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"isstay":0,"likes":"","report":"","focus":"","hope":"","remark":"","clueimginfo":[],"cluestudentid":""},"cluestudentcustfieldinfo":[{"name":"Field6","fieldname":"申请课程","value":"","valuename":"","type":1,"fieldtype":4}]}</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getorderlist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611644556209,
+    "ordercode": "",
+    "studentname": "",
+    "dateRange": "",
+    "paytype": 0,
+    "gradeid": "",
+    "classid": "",
+    "adviser": [],
+    "ispush": [],
+    "sectionIds": [],
+    "lableInfos": [],
+    "adviserids": [],
+    "campusids": [
+        "1040025134"
+    ],
+    "starttime": "",
+    "endtime": "",
+    "LableInofIds": [],
+    "status": 3,
+    "page": {
+        "pageindex": 1,
+        "pagesize": 10,
+        "totalpage": 25,
+        "recordcount": 243
+    }
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -1247,11 +4523,683 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1024690025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:13:47", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 243}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="145" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>case_024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>收款</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=addreceipt</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611646357387,
+    "isnew": false,
+    "receiptinfo": {
+        "paymenttype": 0,
+        "receiptmoney": 0,
+        "orderid": "1061710025134",
+        "studentid": "1060660025134",
+        "paymentchannel": 2,
+        "campusid": "1040025134",
+        "listreceiptdetail": [
+            {
+                "paymenttype": 2,
+                "accountid": "1000610025134",
+                "receiptmoney": 100,
+                "accountname": "微信",
+                "productinfos": []
+            }
+        ],
+        "feedate": "2021-01-26"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"receiptnumber": "C0000019", "receiptmoney": 100, "payqrcode": null}, "url": null, "paycode": null}</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="65" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_021</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取订单列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getorderlist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611644556209,
+    "ordercode": "",
+    "studentname": "",
+    "dateRange": "",
+    "paytype": 0,
+    "gradeid": "",
+    "classid": "",
+    "adviser": [],
+    "ispush": [],
+    "sectionIds": [],
+    "lableInfos": [],
+    "adviserids": [],
+    "campusids": [
+        "1040025134"
+    ],
+    "starttime": "",
+    "endtime": "",
+    "LableInofIds": [],
+    "status": 3,
+    "page": {
+        "pageindex": 1,
+        "pagesize": 10,
+        "totalpage": 25,
+        "recordcount": 243
+    }
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000366", "orderdate": "2021-01-24 23:35:18", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059450025134", "createtime": "2021-01-24 23:35:18", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1059160025134", "name": "\u5085\u7934\u4e89", "schoolrollnumber": null, "smstel": "13255775301", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "344606197008107131", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-24 23:35:18", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059160025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 242}}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="145" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>case_025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>作废订单</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=invalidorder</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{"_t_":1611647046522,"orderid":"1060850025134"}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="65" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_026</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>获取收据列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getreceiptlistpage</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611647669492,
+    "query": {
+        "campusids": [
+            "1040025134"
+        ],
+        "page": {
+            "pageindex": 1,
+            "pagesize": 10,
+            "totalpage": 2,
+            "recordcount": 18,
+            "sortfield": "",
+            "isdesc": true
+        },
+        "LableInofIds": [],
+        "chooseShowInvalid": false,
+        "keyWord": "",
+        "studentName": "",
+        "dateRange": "",
+        "paymentTypes": [],
+        "gradeid": "",
+        "classid": "",
+        "lableInfos": [],
+        "listflag": [
+            1,
+            -1
+        ],
+        "sectionIds": [],
+        "starttime": "",
+        "endtime": "",
+        "liststatus": [
+            1
+        ]
+    }
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 1, "createtime": "2021-01-26 16:18:27", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13220017137", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000383", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1053680025134", "receiptnumber": "C0000015", "paymentchannel": 1, "receiptdate": "2021-01-14 19:23:08", "orderid": "1053630025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2021-01-14 19:23:08", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1053100025134", "studentbaseinfo": {"id": "1053100025134", "name": "\u97e6\u9614\u6ee9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000344", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1047240025134", "receiptnumber": "C0000014", "paymentchannel": 1, "receiptdate": "2020-12-20 23:48:04", "orderid": "1047190025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-12-20 23:48:04", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1047090025134", "studentbaseinfo": {"id": "1047090025134", "name": "\u5b66\u751f\u540d\u5bbf", "sex": 2, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15484664485", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000313", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032660025134", "receiptnumber": "C0000013", "paymentchannel": 2, "receiptdate": "2020-11-24 16:22:05", "orderid": "1032010025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 1000, "status": 1, "createtime": "2020-11-24 16:22:05", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031710025134", "studentbaseinfo": {"id": "1031710025134", "name": "\u5085\u79d8\u556d", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15621613404", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "35717519620511503X", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000216", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032540025134", "receiptnumber": "C0000012", "paymentchannel": 1, "receiptdate": "2020-11-24 16:07:38", "orderid": "1032090025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-24 16:07:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031610025134", "studentbaseinfo": {"id": "1031610025134", "name": "\u97e9\u4e5d", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15130085555", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000218", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023980025134", "receiptnumber": "C0000011", "paymentchannel": 1, "receiptdate": "2020-11-12 19:30:38", "orderid": "1023930025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:30:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000167", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023880025134", "receiptnumber": "C0000010", "paymentchannel": 1, "receiptdate": "2020-11-12 19:29:18", "orderid": "1023830025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:29:18", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000166", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1017320025134", "receiptnumber": "C0000009", "paymentchannel": 1, "receiptdate": "2020-10-29 20:06:56", "orderid": "1017270025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 20:06:56", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016470025134", "studentbaseinfo": {"id": "1016470025134", "name": "6.3.5\u7ebf\u4e0a\u9a8c\u8bc11", "sex": 1, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_1_Smart.png", "smstel": "17898765467", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000120", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1016420025134", "receiptnumber": "C0000008", "paymentchannel": 1, "receiptdate": "2020-10-29 18:13:06", "orderid": "1016350025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 18:13:06", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016010025134", "studentbaseinfo": {"id": "1016010025134", "name": "\u5e9e\u66fe\u67e5", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18727963422", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "507223198004121157", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000119", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1012970025134", "receiptnumber": "C0000006", "paymentchannel": 2, "receiptdate": "2020-10-22 19:02:52", "orderid": "1012810025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 123, "status": 1, "createtime": "2020-10-22 19:02:52", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1011430025134", "studentbaseinfo": {"id": "1011430025134", "name": "\u9648\u75c3\u6864", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "13650853415", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000094", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "6.3.3B\u8ba2\u5355\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}], "page": {"pageindex": 1, "totalpage": 2, "recordcount": 16}, "receiptmoneysummary": 1346.1, "refundmoneysummary": -2252}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="94" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>case_027</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>作废收据</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=cancelreceipt</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{"_t_":1611647757540,"receiptid":"1062300025134"}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8.875"/>
+    <col customWidth="1" max="10" min="10" width="20.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="114" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>case_003</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>查询老师</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getemployeeslist</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>{"_t_":1605574615056,"departid":"","departName":"","chiddepartstatus":1,"statuslist":[1],"query":"董事长","accountstatus":0,"page":{"pagesize":10,"pageindex":1}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getemployeeslist" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getemployeeslist" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getemployeeslist" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getemployeeslist" ref="H2" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1264,11 +5212,11 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
     <col customWidth="1" max="8" min="8" width="33.875"/>
   </cols>
@@ -1329,12 +5277,12 @@
           <t>期望方式</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>期望结果</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1381,13 +5329,13 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>/Pc.do?appid=1&amp;action=addstudent</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>{"_t_":1605253150826,"baseinfo":{"id":"","name":"李少辉测试","sex":0,"photo":"","smstel":"18793536464","birthday":"","nationality":"","nation":"","certificatestype":"","certificatesnumber":"","areacode":"+86","politicalstatusid":"","educationlevelid":"","paydate":"","directionid":"","age":"","povertyid":"","campusid":"1040025134"},"extinfo":{"employee":{"id":"","value":""},"registryprovince":"","registrycity":"","registryarea":"","registryaddress":"","familyprovince":"","familycity":"","familyarea":"","familyaddress":"","isstay":null,"istakebus":null,"healthcondition":"","expectation":"","remark":"","allergy":"","relation":"","likes":"","report":"","follow":"","studentimg":[],"scoreimginfos":[],"householdtypeid":"","bankaccount":""},"contactinfos":[{"calltype":"","name":"","areacode":"+86","smstel":"","education":"","workcompany":"","nativeplace":"","jobname":"","email":"","idcard":""}],"schoolrollinfo":{"schoolrollnumber":"","serial":"","academicid":"1000020025134","inyear":null,"indate":"","gradeid":"1000030025134","originalclassid":"","datafrom":"","startschoolway":"","majorid":"","graduateschool":"","skilllevelid":"","educationalid":"","originagraduategradeid":"","originagraduatedate":"","originagraduatewayid":"","inschoolrolldate":"","reportdate":""},"studentcustfieldinfo":[],"insuranceinfo":{"campusstartdate":"","campusenddate":"","casualtystartdate":"","casualtyenddate":"","liabilitystartdate":"","liabilityenddate":""}}</t>
         </is>
@@ -1419,13 +5367,155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="7" min="7" width="11.125"/>
+    <col customWidth="1" max="8" min="8" width="35"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>case_004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新增教师</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=opemployee</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{"_t_":1611200142571,"optype":1,"employeeinfo":{"name":"李少辉","nickname":"李少辉","sex":1,"smstel":"17848924724","photo":"https://cdn01.xiaogj.com/file/80b39eb52ac24287bc6b301d9fadb3a3/202101/d287bbf057c24487801a4f0eeab17a05.png","departlist":[{"id":"1056780025134","name":"测试部"}],"idnumber":"","indate":"","email":"","positiontype":0,"subjectid":"","superiorlist":[],"departids":["1056780025134"],"nextemployeeids":[]},"userinfo":{"iscreateaccount":1,"username":"李少辉@schooltest2","password":"123456","validdate":"","status":1,"roleids":["1710025134"],"isallcampus":1,"isallacademic":1,"campuslist":[],"academiclist":[]}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="12.875"/>
     <col customWidth="1" max="8" min="8" width="43.875"/>
@@ -1487,12 +5577,12 @@
           <t>期望方式</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>期望结果</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
@@ -1516,12 +5606,12 @@
     <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>case_002</t>
+          <t>case_005</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>新增线索</t>
+          <t>搜索线索名称</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1540,33 +5630,38 @@
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>/Pc.do?appid=1&amp;action=addcluestudent</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>{"_t_":1593763819287,"baseinfo":{"campusid":"1040007092","id":"","name":"维度1","sex":{"id":""},"phone":"15675756465","birthday":"","nationality":{"id":"","value":""},"nation":{"value":"","id":""},"idtype":{"value":"","id":""},"cardid":"","govstudentid":"","avatar":"","status":1,"areacode":"+86","nodebranch":[]},"recruitinfo":{"startschoolway":{"id":"","value":""},"majorid":"","nowschool":"","nowgrade":{"value":"","id":""},"postgrade":{"value":"","id":"1070910007092"},"hopetime":"","recommender":"","recommendername":"","semester":{"value":"","id":""},"cluestatus":{"value":"","id":""},"cluecategory":{"value":"","id":""},"employee":{"value":"","id":""},"teacherName":"","intention":0,"datafrom":{"value":"","id":""},"cluestudentid":"","createuser":{"value":"","id":""},"createtime":""},"familyinfos":[{"name":"","areacode":"+86","appellation":{"id":""},"phone":"","education":{"value":"","id":""},"workin":"","jobname":"","nativeplace":"","email":""}],"otherinfo":{"health":{"value":"","id":""},"allergy":null,"register":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"relation":{"value":"","id":""},"resident":{"province":{"value":"","id":""},"city":{"value":"","id":""},"area":{"value":"","id":""},"address":""},"isstay":0,"likes":"","report":"","focus":"","hope":"","remark":"","clueimginfo":[],"cluestudentid":""},"cluestudentcustfieldinfo":[{"name":"Field1","fieldname":"爱好","value":"","valuename":"","type":1,"fieldtype":1},{"name":"Field2","fieldname":"黎梦婷","value":"2020-07-01","valuename":"","type":1,"fieldtype":3},{"name":"Field3","fieldname":"袁若侨","value":"","valuename":"","type":1,"fieldtype":2},{"name":"Field4","fieldname":"雷蕾","value":"","valuename":"","type":1,"fieldtype":1},{"name":"Field5","fieldname":"身高（伍星）","value":"","valuename":"","type":1,"fieldtype":2},{"name":"Field6","fieldname":"户籍类型","value":"","valuename":"","type":1,"fieldtype":4},{"name":"Field7","fieldname":"是否近视-向璐","value":"","valuename":"","type":1,"fieldtype":4},{"name":"Field8","fieldname":"是否患过疾病或者传染病史","value":"","valuename":"","type":1,"fieldtype":4},{"name":"Field9","fieldname":"谭娟","value":"","valuename":"","type":1,"fieldtype":4},{"name":"Field10","fieldname":"刘艺婷","value":"","valuename":"","type":1,"fieldtype":1}]}</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611207329022,"employeeids":[],"adviserids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":17,"pagesize":10,"pageindex":1,"totalpage":2,"sortfield":"createtime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":1,"cluetabletype":1,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0,"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062410025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birt</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>case_005</t>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>case_006</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>搜索线索名称</t>
+          <t>审核线索</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -1584,29 +5679,31 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>{"employeeids":[],"adviserids":[],"campusids":["46228750007005"],"page":{"recordcount":40,"pagesize":10,"pageindex":1,"totalpage":4,"sortfield":"createtime","isdesc":true},"processnodeids":[],"starttime":"","endtime":"","status":[0,1,2,3,4,5,6,7,8],"majorid":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":["1002120018888","1002190018888","1002210018888","1003230018888","1314120007005","1848560007005","4517530007005","4789570007005","46218770007005","46257040007005"],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0}</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=opclueprocessinstance</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611208542581,"id":["1056240025134"],"processid":"5550025134","academicid":"","campusid":"1040025134","nextprocessnodeid":"5570025134","processnodeid":"5560025134","processinstanceid":["1056270025134"],"isPass":1,"processNodeRemark":"","nomessage":0}</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
+    <row customHeight="1" ht="17" r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>case_004</t>
+          <t>case_007</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -1632,10 +5729,971 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>/Pc.do?appid=1&amp;action=opclueprocessinstance</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611223095285,
+    "id": [
+        "1056240025134"
+    ],
+    "processid": "5550025134",
+    "academicid": "",
+    "campusid": "1040025134",
+    "nextprocessnodeid": "0",
+    "processnodeid": "1000120025134",
+    "processinstanceid": [
+        "1056270025134"
+    ],
+    "isPass": 1,
+    "processNodeRemark": "",
+    "nomessage": 0
+}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="12.375"/>
+    <col customWidth="1" max="10" min="10" width="41.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>搜索线索名称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611207329022,"employeeids":[],"adviserids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":17,"pagesize":10,"pageindex":1,"totalpage":2,"sortfield":"createtime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":1,"cluetabletype":1,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0,"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "phone": "13220017137", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062440025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062440025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062450025134", "studentclueid": "1062440025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062460025134", "studentclueid": "1062440025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062440025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062470025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062410025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>case_008</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>注册学生</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=batchcheckcluepass</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611224827041,"ids":["1056980025134"]}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="8" min="8" width="35.625"/>
+    <col customWidth="1" max="10" min="10" width="45.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>搜索线索名称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelist</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"_t_":1611207329022,"employeeids":[],"adviserids":[],"originalemployeeids":[],"createuserids":[],"campusids":["1040025134"],"page":{"recordcount":17,"pagesize":10,"pageindex":1,"totalpage":2,"sortfield":"createtime","isdesc":true},"LableInofIds":[],"processnodeids":[],"module":1,"cluetabletype":1,"status":[0,1,2,3,4,5,6,7,8],"majorid":"","keyword":"","teacher":[],"adviser":[],"nowGrades":"","postgrade":"","postperiod":[],"processnode":[],"processinstancestatus":[],"startschoolway":[],"ismine":0,"politicalstatusids":[],"educationlevelids":[],"skilllevelids":[],"educationalids":[],"householdtypeids":[],"lableInfos":[],"islock":[],"enrollschool":[],"enrolldepartment":[],"enrollmajor":[],"createuser":[],"originalemployee":[],"intention":[],"cluestageids":[],"commontime":[],"nextcomtime":[],"employeeupdatetime":[],"createtime":[],"cluesource":[],"custfieldvalue":""}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1062410025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:12", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 1, "islock": 0, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="185.25" r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>case_009</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>删除学生</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=deleteclue</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611568714886,
+    "ids": [
+        "1059040025134"
+    ],
+    "listcluesimpleinfo": [
+        {
+            "id": "1059040025134",
+            "name": "李彝颐",
+            "phone": "15739557855"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
+  <cols>
+    <col customWidth="1" max="8" min="8" width="51.125"/>
+    <col customWidth="1" max="10" min="10" width="35.625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="299.25" r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>case_010</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>新增职工</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=opemployee</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611570097389,
+    "optype": 1,
+    "employeeinfo": {
+        "name": "测试人员",
+        "nickname": "测试人员",
+        "sex": 0,
+        "smstel": "13789453945",
+        "photo": "",
+        "departlist": [],
+        "idnumber": "",
+        "indate": "",
+        "email": "",
+        "positiontype": 0,
+        "subjectid": "",
+        "superiorlist": [],
+        "departids": [],
+        "nextemployeeids": []
+    },
+    "userinfo": {}
+}</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/Pc.do?appid=1&amp;action=opemployee" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=opemployee" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=opemployee" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=opemployee" ref="H2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="2"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="14.5"/>
+    <col customWidth="1" max="10" min="10" width="41.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>用例编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>功能点</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求方式</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cookie操作 </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>接口地址</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>appid</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>期望方式</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>期望结果</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>错误数据</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>继承参数</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="409.5" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>搜索线索名称</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=getstudentcluelistpublic</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611570804178,
+    "employeeids": [],
+    "adviserids": [],
+    "campusids": [
+        "1040025134"
+    ],
+    "page": {
+        "recordcount": 32,
+        "pagesize": 10,
+        "pageindex": 1,
+        "totalpage": 4,
+        "sortfield": "createtime",
+        "isdesc": true
+    },
+    "LableInofIds": [],
+    "keyword": "",
+    "status": [
+        0,
+        1,
+        2,
+        3,
+        4,
+        5,
+        6,
+        7
+    ],
+    "sex": [],
+    "starttime": "",
+    "endtime": "",
+    "majorid": "",
+    "teacher": [],
+    "adviser": [],
+    "nowGrades": "",
+    "postgrade": "",
+    "postperiod": [],
+    "startschoolway": [],
+    "ismine": 0,
+    "politicalstatusids": [],
+    "educationlevelids": [],
+    "skilllevelids": [],
+    "educationalids": [],
+    "householdtypeids": [],
+    "lableInfos": [],
+    "enrollschool": [],
+    "enrolldepartment": [],
+    "enrollmajor": []
+}</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "phone": "15296944509", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:10", "createtime": "2021/1/26 16:10", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "shaohui1", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062560025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062560025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:10", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 16:10", "personliableid": "1001070025134", "personliablename": "shaohui1", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 16:10", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062570025134", "studentclueid": "1062560025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062580025134", "studentclueid": "1062560025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062560025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062590025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:10", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1062410025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:12", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 1, "islock": 0, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "",</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="409.5" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>case_011</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>创建订单</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/Pc.do?appid=1&amp;action=oporder</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>{
+    "_t_": 1611571251326,
+    "optype": 1,
+    "campusid": "1040025134",
+    "orderinfo": {
+        "lessmoney": 0,
+        "paymoney": 0,
+        "discountlist": [],
+        "ordermoney": 3456.01,
+        "remark": "全日智API测试",
+        "ordertype": 1,
+        "productinfos": [
+            {
+                "productid": "1016330025134",
+                "productname": "测试",
+                "buyamount": 1,
+                "buymoney": 0.01,
+                "unitid": "1000590025134",
+                "typeid": "1050025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 0.01,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            },
+            {
+                "productid": "1001140025134",
+                "productname": "一年级补课费",
+                "buyamount": 1,
+                "buymoney": 2000,
+                "unitid": "1000590025134",
+                "typeid": "1001130025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 2000,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            },
+            {
+                "productid": "1001120025134",
+                "productname": "一年级教材费",
+                "buyamount": 1,
+                "buymoney": 1456,
+                "unitid": "1000590025134",
+                "typeid": "1070025134",
+                "gradeids": [
+                    "1000030025134"
+                ],
+                "unitprice": 1456,
+                "unitname": "期",
+                "discountmoney": 0,
+                "discountlist": []
+            }
+        ],
+        "sectionId": "1017190025134"
+    },
+    "savetype": 0,
+    "objectids": [
+        "1059100025134"
+    ],
+    "orderstudentlist": [
+        {
+            "id": "1059100025134",
+            "isnewstudent": 1
+        }
+    ],
+    "studentgradeids": [
+        ""
+    ],
+    "iscompel": 1,
+    "iscompelsection": 1,
+    "isPush": 0
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062790025134", "isexitstudentids": []}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getstudentcluelistpublic" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getstudentcluelistpublic" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getstudentcluelistpublic" ref="H2" r:id="rId4"/>
+    <hyperlink display="/Pc.do?appid=1&amp;action=getstudentcluelistpublic" ref="H2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="21" autoFilterDateGrouping="1" firstSheet="16" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="22" autoFilterDateGrouping="1" firstSheet="16" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,82 +57,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -141,29 +65,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,13 +81,112 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,49 +200,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,103 +230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +266,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +296,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,61 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,10 +497,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="22" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -509,131 +509,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="19" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="15" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -1111,11 +1111,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>write</t>
@@ -1287,7 +1283,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061800025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:25", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:25", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1360,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1497,7 +1493,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061800025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:25", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:25", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluesco</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "10602</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1906,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "phone": "14763890454", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/20 13:15", "createtime": "2021/1/20 13:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1055210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1055210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/20 13:15", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1055220025134", "studentclueid": "1055210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1055230025134", "studentclueid": "1055210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1055210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1055240025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/20 13:15", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1054810025134", "name": "\u535e\u86f4\u4f88", "phone": "18992932911", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/19 18:09", "createtime": "2021/1/19 18:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1054810025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1054810025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/19 18:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1054820025134", "studentclueid": "1054810025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1054830025134", "studentclueid": "1054810025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1054810025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1054840025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/19 18:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1053220025134", "name": "\u90d1\u878d\u5486", "phone": "18604418763", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/12 23:54", "createtime": "2021/1/12 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1053220025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1053220025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/12 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1053230025134", "studentclueid": "1053220025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1053240025134", "studentclueid": "1053220025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1053220025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1053250025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/12 23:54", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1052650025134", "name": "\u4e25\u867e", "phone": "15720867424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/11 23:54", "createtime": "2021/1/11 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1052650025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1052650025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/11 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1052660025134", "studentclueid": "1052650025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1052670025134", "studentclueid": "1052650025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1052650025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1052680025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/11 23:54", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1051970025134", "name": "\u51af\u62d8", "phone": "13402471461", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/11 12:55", "createtime": "2021/1/11 12:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1051970025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1051970025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/11 12:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1051980025134", "studentclueid": "1051970025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1051990025134", "studentclueid": "1051970025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1051970025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1052000025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/11 12:55", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1050980025134", "name": "\u6f58\u62f7", "phone": "13090721112", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/9 23:54", "createtime": "2021/1/9 23:54", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1050980025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1050980025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/9 23:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1050990025134", "studentclueid": "1050980025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1051000025134", "studentclueid": "1050980025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1050980025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "proces</t>
+          <t xml:space="preserve">{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 11:56", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:56", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064900025134", "name": "\u9c8d\u8c6a\u6f02", "phone": "15781939729", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064910025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064920025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063920025134", "name": "\u8bb8\u80a9", "phone": "15051501101", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:14", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063920025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063920025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001070025134", "employeeupdatetime": "2021/1/26 23:41", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "shaohui1", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 23:41", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063930025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063940025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063920025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063950025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:14", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063700025134", "name": "\u5e73\u7490", "phone": "13764411579", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 16:31", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063700025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063700025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:31", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063710025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063720025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063700025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063730025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 16:16", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": </t>
         </is>
       </c>
     </row>
@@ -2334,7 +2330,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062560025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066220025134"}</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2548,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:15", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:15", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 16:15", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 16:15", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061200025134", "name": "\u5510\u64ae\u8f72", "phone": "13201298017", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:01", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061200025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061200025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:01", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:29", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061210025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061220025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061200025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061230025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:01", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061140025134", "name": "\u4efb\u5bb8\u864e", "phone": "13241043937", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061140025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061140025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:28", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061150025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061160025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061140025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061170025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:00", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}], "page": {"pageindex": 1, "totalpage": 1, "recordcount": 3}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 12:00", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 12:00", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065240025134", "name": "\u5f20\u516b", "phone": "13747801966", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:45", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065240025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065240025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:55", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:55", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065250025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065260025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065240025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065270025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:45", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061200025134", "name": "\u5510\u64ae\u8f72", "phone": "13201298017", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:01", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061200025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061200025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:01", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:29", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061210025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061220025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061200025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061230025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:01", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061140025134", "name": "\u4efb\u5bb8\u864e", "phone": "13241043937", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061140025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061140025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:28", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061150025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061160025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061140025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061170025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:00", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}], "page": {"pageindex": 1, "totalpage": 1, "recordcount": 4}}</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2802,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"studentid": "1062440025134", "baseinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13220017137", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 16:11:16", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1062670025134", "studentid": "1062440025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 16:11:17", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1062440025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1062700025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1062440025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1062710025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1062440025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-26", "id": "1062680025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-26 16:11:17", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1062500025134", "baseinfo": {"id": "1062500025134", "name": "\u660e\u9ab7\u6d35", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 16:09:53", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1062510025134", "studentid": "1062500025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1062500025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1062540025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1062500025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1062520025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1062550025134", "studentid": "1062500025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1060660025134", "baseinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-26", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1060670025134", "studentid": "1060660025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1060660025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1060700025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1060660025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1060680025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "1060710025134", "studentid": "1060660025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1060270025134", "baseinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13236608002", "birthday": "2014-08-18", "nationality": "97", "nation": "30", "certificatestype": "4", "certificatesnumber": "237042199806086936", "status": 1, "createtime": "2021-01-25 23:31:49", "createuserid": "", "studentclassstatus": 0, "nationalityname": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "nationname": "\u85cf\u65cf", "certificatestypename": "\u8eab\u4efd\u8bc1", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "121", "politicalstatusname": "\u5171\u4ea7\u515a\u5458", "educationlevelid": "124", "educationlevelname": "\u521d\u4e2d", "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "lableinfolist": [], "paydate": "", "directionid": "1000940025134", "directionname": "UC", "age": "22", "povertyid": "", "povertyname": "", "employeeid": "1001070025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "130000", "registrycity": "130900", "registryarea": "130904", "registryaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740", "familyprovince": "130000", "familycity": "130900", "familyarea": "130904", "familyaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740", "isstay": 1, "istakebus": 0, "healthcondition": "10", "awards": "", "expectation": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "relation": "84", "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "studentimg": [], "registryprovincename": "\u6cb3\u5317\u7701", "registrycityname": "\u5510\u5c71\u5e02", "registryareaname": "\u5f00\u5e73\u533a", "familyprovincename": "\u6cb3\u5317\u7701", "familycityname": "\u5510\u5c71\u5e02", "familyareaname": "\u5f00\u5e73\u533a", "healthconditionname": "\u6709\u751f\u7406\u7f3a\u9677", "relationname": "\u7236\u6bcd", "follow": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "id": "1060420025134", "studentid": "1060270025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "1000920025134", "householdtypename": "\u519c\u6751\u6237\u53e3", "bankaccount": "", "employee": {"id": "1001070025134", "value": "shaohui1", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 23:31:50", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1060270025134", "calltype": "12", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "15735893631", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "calltypename": "\u7238\u7238", "educationname": "\u7855\u58eb", "id": "1060450025134", "appellationcode": "Father", "areacode": "+86", "idcard": "632141198705218981"}, {"studentid": "1060270025134", "calltype": "13", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "13923018324", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "calltypename": "\u5988\u5988", "educationname": "\u7855\u58eb", "id": "1060460025134", "appellationcode": "Mother", "areacode": "+86", "idcard": "239934197606174706"}], "schoolrollinfo": {"studentid": "1060270025134", "schoolrollnumber": "KT4961524", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-25", "id": "1060430025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001160025134", "datafromname": "UC", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": "\u82f1\u8bed", "majorid": "1000860025134", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevelid": "135", "skilllevelname": "\u6280\u5e08", "educationalid": "1001040025134", "educationalname": "\u56db\u5e74\u5b66\u5236", "originagraduategradeid": "154", "originagraduategradename": "\u9ad8\u4e8c", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 23:31:50", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1013090025134", "baseinfo": {"id": "1013090025134", "name": "\u4efb\u80f8", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "14744703147", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 18:16:10", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "10025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059710025134", "studentid": "1013090025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "10025134", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 18:16:10", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1013090025134", "calltype": "12", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1059740025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1013090025134", "calltype": "13", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1059750025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1013090025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-25", "id": "1059720025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 18:16:10", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1017210025134", "baseinfo": {"id": "1017210025134", "name": "\u62cd\u89c6\u9891", "sex": 2, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15464845414", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-25 18:13:41", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 1, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "10025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 1, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059650025134", "studentid": "1017210025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "10025134", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-25 18:13:41", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1017210025134", "calltype": "12", "name": "\u7238\u7238\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1059680025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1017210025134", "calltype": "13", "name": "\u5988\u5988\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1059690025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1017210025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-25", "id": "1059660025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001150025134", "datafromname": "\u6296\u97f3", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-25 18:13:41", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1059550025134", "baseinfo": {"id": "1059550025134", "name": "\u7c73\u5949", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-24 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1059560025134", "studentid": "1059550025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1059550025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1059590025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1059550025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1059570025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"studentid": "1066100025134", "baseinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15230062426", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 12:00:02", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066330025134", "studentid": "1066100025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 12:00:02", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066100025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1066360025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1066100025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1066370025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066100025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1066340025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 12:00:02", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1066160025134", "baseinfo": {"id": "1066160025134", "name": "\u5e9e\u9cd3", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:59:56", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066170025134", "studentid": "1066160025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066160025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1066200025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066160025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1066180025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1066210025134", "studentid": "1066160025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065360025134", "baseinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15033157521", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:39", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-27", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065590025134", "studentid": "1065360025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 11:55:39", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065360025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1065620025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1065360025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1065630025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065360025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1065600025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 11:55:39", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065420025134", "baseinfo": {"id": "1065420025134", "name": "\u65b9\u9af9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:33", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065430025134", "studentid": "1065420025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065420025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1065460025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065420025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1065440025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1065470025134", "studentid": "1065420025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064330025134", "baseinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15257889150", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:37:10", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-26", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1064610025134", "studentid": "1064330025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 23:37:10", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064330025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1064640025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1064330025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1064650025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1064330025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-26", "id": "1064620025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-26 23:37:10", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064390025134", "baseinfo": {"id": "1064390025134", "name": "\u8212\u8e40\u6c55", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1064400025134", "studentid": "1064390025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064390025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1064430025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1064390025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1064410025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1064440025134", "studentid": "1064390025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064040025134", "baseinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15893984471", "birthday": "2014-08-18", "nationality": "97", "nation": "30", "certificatestype": "4", "certificatesnumber": "636040198003053045", "status": 1, "createtime": "2021-01-26 23:32:46", "createuserid": "", "studentclassstatus": 0, "nationalityname": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "nationname": "\u85cf\u65cf", "certificatestypename": "\u8eab\u4efd\u8bc1", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "121", "politicalstatusname": "\u5171\u4ea7\u515a\u5458", "educationlevelid": "124", "educationlevelname": "\u521d\u4e2d", "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "lableinfolist": [], "paydate": "", "directionid": "1000940025134", "directionname": "UC", "age": "40", "povertyid": "", "povertyname": "", "employeeid": "1001070025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "130000", "registrycity": "130900", "registryarea": "130904", "registryaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740", "familyprovince": "130000", "familycity": "130900", "familyarea": "130904", "familyaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740", "isstay": 1, "istakebus": 0, "healthcondition": "10", "awards": "", "expectation": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "relation": "84", "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "studentimg": [], "registryprovincename": "\u6cb3\u5317\u7701", "registrycityname": "\u5510\u5c71\u5e02", "registryareaname": "\u5f00\u5e73\u533a", "familyprovincename": "\u6cb3\u5317\u7701", "familycityname": "\u5510\u5c71\u5e02", "familyareaname": "\u5f00\u5e73\u533a", "healthconditionname": "\u6709\u751f\u7406\u7f3a\u9677", "relationname": "\u7236\u6bcd", "follow": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "id": "1064190025134", "studentid": "1064040025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "1000920025134", "householdtypename": "\u519c\u6751\u6237\u53e3", "bankaccount": "", "employee": {"id": "1001070025134", "value": "shaohui1", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 23:32:46", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064040025134", "calltype": "12", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "13704059705", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "calltypename": "\u7238\u7238", "educationname": "\u7855\u58eb", "id": "1064220025134", "appellationcode": "Father", "areacode": "+86", "idcard": "123338197511277229"}, {"studentid": "1064040025134", "calltype": "13", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "15099931584", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "calltypename": "\u5988\u5988", "educationname": "\u7855\u58eb", "id": "1064230025134", "appellationcode": "Mother", "areacode": "+86", "idcard": "455440195610257350"}], "schoolrollinfo": {"studentid": "1064040025134", "schoolrollnumber": "QA2955903", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-26", "id": "1064200025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001160025134", "datafromname": "UC", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": "\u82f1\u8bed", "majorid": "1000860025134", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevelid": "135", "skilllevelname": "\u6280\u5e08", "educationalid": "1001040025134", "educationalname": "\u56db\u5e74\u5b66\u5236", "originagraduategradeid": "154", "originagraduategradename": "\u9ad8\u4e8c", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "",</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2926,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062860025134", "isexitstudentids": []}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066520025134", "isexitstudentids": []}</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3292,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062960025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066620025134"}</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3658,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1063020025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066680025134"}</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3839,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:13:47", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 243}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066520025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000394", "orderdate": "2021-01-27 12:00:11", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066510025134", "createtime": "2021-01-27 12:00:11", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "schoolrollnumber": null, "smstel": "15230062426", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:00:11", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3991,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -4346,7 +4342,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062440025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066100025134"}</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:13:47", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 243}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066520025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000394", "orderdate": "2021-01-27 12:00:11", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066510025134", "createtime": "2021-01-27 12:00:11", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "schoolrollnumber": null, "smstel": "15230062426", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:00:11", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4587,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"receiptnumber": "C0000019", "receiptmoney": 100, "payqrcode": null}, "url": null, "paycode": null}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"receiptnumber": "C0000023", "receiptmoney": 100, "payqrcode": null}, "url": null, "paycode": null}</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4764,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062790025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000382", "orderdate": "2021-01-26 16:13:12", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062780025134", "createtime": "2021-01-26 16:13:12", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "schoolrollnumber": null, "smstel": "15296944509", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 16:13:12", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062560025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060570025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000375", "orderdate": "2021-01-25 23:35:26", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060560025134", "createtime": "2021-01-25 23:35:26", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060270025134", "name": "\u5143\u6491\u75cd", "schoolrollnumber": null, "smstel": "13236608002", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "237042199806086936", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-25 23:35:26", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060270025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060520025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000374", "orderdate": "2021-01-25 23:33:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060510025134", "createtime": "2021-01-25 23:33:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 23:33:48", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060090025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000372", "orderdate": "2021-01-25 18:40:52", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060080025134", "createtime": "2021-01-25 18:40:52", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:40:52", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059910025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000369", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1055210025134", "name": "\u9c81\u5478\u6e5f", "schoolrollnumber": null, "smstel": "14763890454", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1055210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059950025134", "remark": "\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000370", "orderdate": "2021-01-25 18:35:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059900025134", "createtime": "2021-01-25 18:35:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1059100025134", "name": "\u536b\u8a8a\u768b", "schoolrollnumber": null, "smstel": "15952701484", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-25 18:35:34", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1059460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000366", "orderdate": "2021-01-24 23:35:18", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1059450025134", "createtime": "2021-01-24 23:35:18", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1059160025134", "name": "\u5085\u7934\u4e89", "schoolrollnumber": null, "smstel": "13255775301", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "344606197008107131", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-24 23:35:18", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1059160025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 242}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 248}}</t>
         </is>
       </c>
     </row>
@@ -4832,8 +4828,8 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -5000,7 +4996,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 1, "createtime": "2021-01-26 16:18:27", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13220017137", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000383", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1053680025134", "receiptnumber": "C0000015", "paymentchannel": 1, "receiptdate": "2021-01-14 19:23:08", "orderid": "1053630025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2021-01-14 19:23:08", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1053100025134", "studentbaseinfo": {"id": "1053100025134", "name": "\u97e6\u9614\u6ee9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000344", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1047240025134", "receiptnumber": "C0000014", "paymentchannel": 1, "receiptdate": "2020-12-20 23:48:04", "orderid": "1047190025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-12-20 23:48:04", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1047090025134", "studentbaseinfo": {"id": "1047090025134", "name": "\u5b66\u751f\u540d\u5bbf", "sex": 2, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15484664485", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000313", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032660025134", "receiptnumber": "C0000013", "paymentchannel": 2, "receiptdate": "2020-11-24 16:22:05", "orderid": "1032010025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 1000, "status": 1, "createtime": "2020-11-24 16:22:05", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031710025134", "studentbaseinfo": {"id": "1031710025134", "name": "\u5085\u79d8\u556d", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15621613404", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "35717519620511503X", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000216", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032540025134", "receiptnumber": "C0000012", "paymentchannel": 1, "receiptdate": "2020-11-24 16:07:38", "orderid": "1032090025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-24 16:07:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031610025134", "studentbaseinfo": {"id": "1031610025134", "name": "\u97e9\u4e5d", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15130085555", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000218", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023980025134", "receiptnumber": "C0000011", "paymentchannel": 1, "receiptdate": "2020-11-12 19:30:38", "orderid": "1023930025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:30:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000167", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023880025134", "receiptnumber": "C0000010", "paymentchannel": 1, "receiptdate": "2020-11-12 19:29:18", "orderid": "1023830025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:29:18", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000166", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1017320025134", "receiptnumber": "C0000009", "paymentchannel": 1, "receiptdate": "2020-10-29 20:06:56", "orderid": "1017270025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 20:06:56", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016470025134", "studentbaseinfo": {"id": "1016470025134", "name": "6.3.5\u7ebf\u4e0a\u9a8c\u8bc11", "sex": 1, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_1_Smart.png", "smstel": "17898765467", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000120", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1016420025134", "receiptnumber": "C0000008", "paymentchannel": 1, "receiptdate": "2020-10-29 18:13:06", "orderid": "1016350025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 18:13:06", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016010025134", "studentbaseinfo": {"id": "1016010025134", "name": "\u5e9e\u66fe\u67e5", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18727963422", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "507223198004121157", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000119", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1012970025134", "receiptnumber": "C0000006", "paymentchannel": 2, "receiptdate": "2020-10-22 19:02:52", "orderid": "1012810025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 123, "status": 1, "createtime": "2020-10-22 19:02:52", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1011430025134", "studentbaseinfo": {"id": "1011430025134", "name": "\u9648\u75c3\u6864", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "13650853415", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000094", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "6.3.3B\u8ba2\u5355\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}], "page": {"pageindex": 1, "totalpage": 2, "recordcount": 16}, "receiptmoneysummary": 1346.1, "refundmoneysummary": -2252}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"companyid": "", "id": "1066770025134", "receiptnumber": "C0000023", "paymentchannel": 2, "receiptdate": "2021-01-27 12:00:29", "orderid": "1066520025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 1, "createtime": "2021-01-27 12:00:29", "createuserid": "1001070025134", "createusername": "shaohui1", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1066100025134", "studentbaseinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15230062426", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000394", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1053680025134", "receiptnumber": "C0000015", "paymentchannel": 1, "receiptdate": "2021-01-14 19:23:08", "orderid": "1053630025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2021-01-14 19:23:08", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1053100025134", "studentbaseinfo": {"id": "1053100025134", "name": "\u97e6\u9614\u6ee9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000344", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1047240025134", "receiptnumber": "C0000014", "paymentchannel": 1, "receiptdate": "2020-12-20 23:48:04", "orderid": "1047190025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-12-20 23:48:04", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1047090025134", "studentbaseinfo": {"id": "1047090025134", "name": "\u5b66\u751f\u540d\u5bbf", "sex": 2, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15484664485", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000313", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032660025134", "receiptnumber": "C0000013", "paymentchannel": 2, "receiptdate": "2020-11-24 16:22:05", "orderid": "1032010025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 1000, "status": 1, "createtime": "2020-11-24 16:22:05", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031710025134", "studentbaseinfo": {"id": "1031710025134", "name": "\u5085\u79d8\u556d", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15621613404", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "35717519620511503X", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000216", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1032540025134", "receiptnumber": "C0000012", "paymentchannel": 1, "receiptdate": "2020-11-24 16:07:38", "orderid": "1032090025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-24 16:07:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1031610025134", "studentbaseinfo": {"id": "1031610025134", "name": "\u97e9\u4e5d", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15130085555", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000218", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023980025134", "receiptnumber": "C0000011", "paymentchannel": 1, "receiptdate": "2020-11-12 19:30:38", "orderid": "1023930025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:30:38", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000167", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1023880025134", "receiptnumber": "C0000010", "paymentchannel": 1, "receiptdate": "2020-11-12 19:29:18", "orderid": "1023830025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-11-12 19:29:18", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1023430025134", "studentbaseinfo": {"id": "1023430025134", "name": "\u55bb\u5c31", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18900120867", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "448707196512041842", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000166", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1017320025134", "receiptnumber": "C0000009", "paymentchannel": 1, "receiptdate": "2020-10-29 20:06:56", "orderid": "1017270025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 20:06:56", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016470025134", "studentbaseinfo": {"id": "1016470025134", "name": "6.3.5\u7ebf\u4e0a\u9a8c\u8bc11", "sex": 1, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_1_Smart.png", "smstel": "17898765467", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000120", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1016420025134", "receiptnumber": "C0000008", "paymentchannel": 1, "receiptdate": "2020-10-29 18:13:06", "orderid": "1016350025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-10-29 18:13:06", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1016010025134", "studentbaseinfo": {"id": "1016010025134", "name": "\u5e9e\u66fe\u67e5", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "18727963422", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "\u4e00\u5e74\u4e8c\u73ed", "certificatesnumber": "507223198004121157", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000119", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1012970025134", "receiptnumber": "C0000006", "paymentchannel": 2, "receiptdate": "2020-10-22 19:02:52", "orderid": "1012810025134", "accountname": "\u5237\u5361\u652f\u4ed8", "receiptmoney": 123, "status": 1, "createtime": "2020-10-22 19:02:52", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1011430025134", "studentbaseinfo": {"id": "1011430025134", "name": "\u9648\u75c3\u6864", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "13650853415", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000094", "paymentnumber": null, "paymenttypenames": "\u73b0\u91d1", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "6.3.3B\u8ba2\u5355\u6d4b\u8bd5", "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}], "page": {"pageindex": 1, "totalpage": 2, "recordcount": 16}, "receiptmoneysummary": 1346.1, "refundmoneysummary": -2252}</t>
         </is>
       </c>
     </row>
@@ -5064,8 +5060,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="1"/>
@@ -5649,7 +5645,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062410025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birt</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065930025134", "name": "\u72c4\u86d1", "phone": "15932577274", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065930025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065930025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065940025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065950025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065930025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065960025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "proce</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5910,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "phone": "13220017137", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062440025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062440025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062450025134", "studentclueid": "1062440025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062460025134", "studentclueid": "1062440025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062440025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062470025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062410025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:09", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cl</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066100025134", "name": "\u8d1d\u57c2", "phone": "15230062426", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:59", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "shaohui1", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066100025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066100025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066110025134", "studentclueid": "1066100025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066120025134", "studentclueid": "1066100025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066100025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066130025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:59", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065930025134", "name": "\u72c4\u86d1", "phone": "15932577274", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065930025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065930025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065940025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065950025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065930025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065960025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebran</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6112,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1062410025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:12", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 1, "islock": 0, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061860025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:53", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:53", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061770025134", "name": "\u5ea6", "phone": "18932424323", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:25", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061770025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061770025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061780025134", "studentclueid": "1061770025134", "name": "\u53d1\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061790025134", "studentclueid": "1061770025134", "name": "\u53d1\u5927\u6c34", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061770025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag"</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065930025134", "name": "\u72c4\u86d1", "phone": "15932577274", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065930025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065930025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065940025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065950025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065930025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1065960025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 1, "islock": 1, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processno</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6556,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1062560025134", "name": "\u90ac\u6168\u8fe4", "phone": "15296944509", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:10", "createtime": "2021/1/26 16:10", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "shaohui1", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062560025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062560025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:10", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 16:10", "personliableid": "1001070025134", "personliablename": "shaohui1", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 16:10", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062570025134", "studentclueid": "1062560025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062580025134", "studentclueid": "1062560025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062560025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1062590025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:10", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1062380025134", "name": "\u582a\u96bd", "phone": "13126041539", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 16:09", "createtime": "2021/1/26 16:09", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1062380025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1062380025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 16:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1062390025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1062400025134", "studentclueid": "1062380025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1062380025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1062410025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:12", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 1, "islock": 0, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061960025134", "name": "\u6bb7\u8169\u98df", "phone": "13638633106", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:58", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061970025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061980025134", "studentclueid": "1061960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:58", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:58", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:59", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field32", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field33", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field34", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field35", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field36", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field37", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field38", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field39", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field4", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field40", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field41", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field42", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field43", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field44", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field45", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field46", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field47", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field48", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field49", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field5", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field50", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field6", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field7", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field8", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field9", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}], "recruitinfo": {"cluestudentid": "1061900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061910025134", "studentclueid": "1061900025134", "name": "\u653e\u6c34\u9600", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061920025134", "studentclueid": "1061900025134", "name": "\u5927\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 14:55", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 14:55", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061830025134", "name": "\u4e91\u5978\u7ee0", "phone": "13300941287", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 14:54", "createtime": "2021/1/26 14:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061830025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061830025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 14:54", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 14:54", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061840025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061850025134", "studentclueid": "1061830025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061830025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "",</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066220025134", "name": "\u5143\u8d47", "phone": "15164101149", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:59", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "shaohui1", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066220025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066220025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:59", "personliableid": "1001070025134", "personliablename": "shaohui1", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:59", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066230025134", "studentclueid": "1066220025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066240025134", "studentclueid": "1066220025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066220025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066250025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:59", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065930025134", "name": "\u72c4\u86d1", "phone": "15932577274", "period": "", "grade": "", "status": "\u5df2\u5f55\u53d6", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 11:59", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 7, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065930025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065930025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:59", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:59", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065940025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065950025134", "studentclueid": "1065930025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065930025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "1000120025134", "processinstanceid": "1065960025134", "processnodename": "\u62a5\u540d", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "1000120025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "1000120025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "1000120025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "shaohui1", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 1, "islock": 1, "processnodetype": 2, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065480025134", "name": "\u6768\u5501\u6b37", "phone": "15884703398", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065480025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065480025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:55", "personliableid": "1001070025134", "personliablename": "shaohui1", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:55", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065490025134", "studentclueid": "1065480025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065500025134", "studentclueid": "1065480025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065480025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065510025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:55", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065240025134", "name": "\u5f20\u516b", "phone": "13747801966", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:45", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065240025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065240025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:55", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:55", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065250025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065260025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065240025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065270025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:45", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6679,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1062790025134", "isexitstudentids": []}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066450025134", "isexitstudentids": []}</t>
         </is>
       </c>
     </row>

--- a/venv/config/login_test_case.xlsx
+++ b/venv/config/login_test_case.xlsx
@@ -1283,7 +1283,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560</t>
+          <t xml:space="preserve">{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066620025134", "name": "\u9a6c\u5cd2", "phone": "15544971682", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:09", "createtime": "2021/1/27 12:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066620025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066620025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:09", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066630025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066640025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066620025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066650025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 12:00", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1060240025134", "processnodename": "\u5ba1\u6838", </t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "10602</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065120025134", "name": "\u8c22\u8dda\u8c79", "phone": "15319531919", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 10:49", "createtime": "2021/1/27 10:49", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065120025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065120025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 10:49", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 10:49", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065130025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065140025134", "studentclueid": "1065120025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065120025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065150025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 10:49", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064960025134", "name": "\u67f3\u5fbd\u7fee", "phone": "13764883250", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064960025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064960025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064970025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064980025134", "studentclueid": "1064960025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064960025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064990025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063760025134", "name": "\u8303\u5fbc\u4e71", "phone": "13657615825", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 23:40", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063760025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063760025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 23:40", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:40", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063770025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063780025134", "studentclueid": "1063760025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063760025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063790025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061080025134", "name": "\u6d4b\u8bd5", "phone": "12873489242", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 10:45", "createtime": "2021/1/26 9:53", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061080025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061080025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/26 10:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 10:45", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:35", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061090025134", "studentclueid": "1061080025134", "name": "\u963f\u65af\u8482\u82ac\u6492", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061100025134", "studentclueid": "1061080025134", "name": "\u5927", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061080025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061110025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 9:53", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "phone": "15678152794", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/26 11:00", "createtime": "2021/1/25 23:15", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060210025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060210025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 11:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/26 10:58", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:48", "shiftadvancedcluepooltime": "2021/1/26 10:58", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060220025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060230025134", "studentclueid": "1060210025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060210025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1060240025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/25 23:15", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 5456.01, "paymoney": 0, "lessmoney": 5456.01, "orderflag": 1}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1060150025134", "name": "\u6731\u7953", "phone": "13547746034", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:04", "createtime": "2021/1/25 23:14", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1060150025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1060150025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001070025134", "employeeupdatetime": "2021/1/26 11:04", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:04", "originalemployeename": "shaohui1", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 10:39", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1060160025134", "studentclueid": "1060150025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1060170025134", "studentclueid": "1060150025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1060150025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u516</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 11:56", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:56", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001090025134", "employeeupdatetime": "2021/1/27 11:55", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "shaohui2", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 11:55", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064900025134", "name": "\u9c8d\u8c6a\u6f02", "phone": "15781939729", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064910025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064920025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063920025134", "name": "\u8bb8\u80a9", "phone": "15051501101", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:14", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063920025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063920025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001070025134", "employeeupdatetime": "2021/1/26 23:41", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "shaohui1", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 23:41", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063930025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063940025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063920025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063950025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:14", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063700025134", "name": "\u5e73\u7490", "phone": "13764411579", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 16:31", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063700025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063700025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:31", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063710025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063720025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063700025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063730025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 16:31", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 16:31", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061900025134", "name": "\u8212\u670d\u8212\u670d", "phone": "18472432424", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 16:16", "createtime": "2021/1/26 14:55", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}, {"cluestudentid": "1061900025134", "name": "Field10", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field11", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field12", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field13", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field14", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field15", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field16", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field17", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field18", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field19", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field2", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field20", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field21", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field22", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field23", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field24", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field25", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field26", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field27", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field28", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field29", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field3", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field30", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": "Field31", "fieldname": "", "value": "", "valuename": "", "type": 0, "fieldtype": 0}, {"cluestudentid": "1061900025134", "name": </t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066680025134", "name": "\u9146\u832c", "phone": "14798868015", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 12:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066680025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066680025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066690025134", "studentclueid": "1066680025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066700025134", "studentclueid": "1066680025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066680025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066710025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 12:00", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1066620025134", "name": "\u9a6c\u5cd2", "phone": "15544971682", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 12:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066620025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066620025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066630025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066640025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066620025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066650025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 12:00", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065180025134", "name": "\u7941\u8354", "phone": "14704033225", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:44", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065180025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065180025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001070025134", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "shaohui1", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/27 12:00", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065190025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065200025134", "studentclueid": "1065180025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065180025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065210025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:44", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1064900025134", "name": "\u9c8d\u8c6a\u6f02", "phone": "15781939729", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:41", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1064900025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1064900025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1064910025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1064920025134", "studentclueid": "1064900025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1064900025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1064930025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:41", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/26 23:41", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063920025134", "name": "\u8bb8\u80a9", "phone": "15051501101", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 23:41", "createtime": "2021/1/26 23:14", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063920025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063920025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "\u81ea\u52a8\u5316PC\u65b0\u589e\u63a8\u8350\u4eba", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "1001070025134", "employeeupdatetime": "2021/1/26 23:41", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 23:41", "originalemployeename": "shaohui1", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "2021/1/26 23:41", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063930025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063940025134", "studentclueid": "1063920025134", "name": "\u81ea\u52a8\u5316PC\u65b0\u589e\u7ebf\u7d22\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063920025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063950025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 23:14", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1063700025134", "name": "\u5e73\u7490", "phone": "13764411579", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "", "comtime": "2021/1/26 16:31", "createtime": "2021/1/26 16:31", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1063700025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1063700025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 16:31", "originalemployeename": "", "shiftpersonliabletime": "", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1063710025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1063720025134", "studentclueid": "1063700025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1063700025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1063730025134", "processnodename": "</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066220025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066970025134"}</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1065870025134", "name": "\u6c64\u6fc9\u5658", "phone": "15509165241", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 12:00", "createtime": "2021/1/27 11:56", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065870025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065870025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:00", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 12:00", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 12:00", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065880025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065890025134", "studentclueid": "1065870025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065870025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065900025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:56", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 11:56", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065240025134", "name": "\u5f20\u516b", "phone": "13747801966", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:45", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065240025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065240025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:55", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:55", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065250025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065260025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065240025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065270025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:45", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061200025134", "name": "\u5510\u64ae\u8f72", "phone": "13201298017", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:01", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061200025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061200025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:01", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:29", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061210025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061220025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061200025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061230025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:01", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061140025134", "name": "\u4efb\u5bb8\u864e", "phone": "13241043937", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061140025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061140025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:28", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061150025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061160025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061140025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061170025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:00", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}], "page": {"pageindex": 1, "totalpage": 1, "recordcount": 4}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066620025134", "name": "\u9a6c\u5cd2", "phone": "15544971682", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui1", "comtime": "2021/1/27 12:09", "createtime": "2021/1/27 12:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u81ea\u4e3b\u62a5\u540d", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1066620025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1066620025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 12:09", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 12:09", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 12:09", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 12:09", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1066630025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1066640025134", "studentclueid": "1066620025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1066620025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1066650025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 12:00", "updateuser": "\u81ea\u4e3b\u62a5\u540d", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "2021/1/27 12:00", "processintancenodeispass": 0, "islock": 1, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1065240025134", "name": "\u5f20\u516b", "phone": "13747801966", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/27 11:55", "createtime": "2021/1/27 11:45", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1065240025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1065240025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/27 11:45", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/27 11:55", "originalemployeename": "", "shiftpersonliabletime": "2021/1/27 11:55", "personliableid": "", "personliablename": "", "originalpersonliableid": "", "originalpersonliablename": "", "personliableidupdatetime": "2021/1/27 11:55", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1065250025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1065260025134", "studentclueid": "1065240025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1065240025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1065270025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/27 11:45", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061200025134", "name": "\u5510\u64ae\u8f72", "phone": "13201298017", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:01", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061200025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061200025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:01", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:29", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061210025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061220025134", "studentclueid": "1061200025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061200025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061230025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:01", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}, {"id": "1061140025134", "name": "\u4efb\u5bb8\u864e", "phone": "13241043937", "period": "", "grade": "", "status": "\u672a\u5ba1\u6838", "cluestatus": "", "cluecategory": "", "datafrom": "", "intention": 0, "adviser": "shaohui2", "comtime": "2021/1/26 11:41", "createtime": "2021/1/26 10:00", "avatar": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "sex": 0, "statusid": 1, "checkdate": null, "checkuser": null, "createuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "gradeid": "", "nation": "", "recommender": "", "chinese": 0, "maths": 0, "english": 0, "physics": 0, "chemistry": 0, "politics": 0, "history": 0, "geography": 0, "biology": 0, "interview": 0, "scoresum": 0, "cluestudentcustfieldinfo": [{"cluestudentid": "1061140025134", "name": "Field1", "fieldname": "\u81ea\u5b9a\u4e49\u5b57\u6bb51", "value": "", "valuename": "", "type": 1, "fieldtype": 4}], "recruitinfo": {"cluestudentid": "1061140025134", "nowschool": "", "nowgrade": {"id": "", "value": "", "flag": 0}, "postgrade": {"id": "", "value": null, "flag": 0}, "postperiod": {"id": "", "value": null, "flag": 0}, "hopetime": "", "recommender": "", "cluecategory": {"id": "", "value": null, "flag": 0}, "employee": {"id": "", "value": null, "flag": 0}, "intention": 0, "datafrom": {"id": "", "value": null, "flag": 0}, "cluestatus": {"id": "", "value": null, "flag": 0}, "semester": {"id": "", "value": null, "flag": 0}, "ispast": 0, "startschoolway": {"id": "", "value": "", "flag": 0}, "majorid": "", "majorname": null, "graduateschool": "", "skilllevel": {"id": "", "value": null, "flag": 0}, "educational": {"id": "", "value": null, "flag": 0}, "originalemployeeid": "", "employeeupdatetime": "2021/1/26 10:00", "nextcomtime": "", "cluestage": {"id": "", "value": "", "flag": 0}, "content": "", "commontime": "2021/1/26 11:41", "originalemployeename": "", "shiftpersonliabletime": "2021/1/26 10:28", "personliableid": "", "personliablename": "", "originalpersonliableid": "1001070025134", "originalpersonliablename": "shaohui1", "personliableidupdatetime": "2021/1/26 11:41", "clueadvancedstage": {"id": "", "value": "", "flag": 0}, "shiftcluepooltime": "", "shiftadvancedcluepooltime": "2021/1/26 11:41", "originagraduategrade": {"id": "", "value": "", "flag": 0}}, "familyinfos": [{"id": "1061150025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "appellation": {"id": "12", "value": "\u7238\u7238", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"id": "1061160025134", "studentclueid": "1061140025134", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "appellation": {"id": "13", "value": "\u5988\u5988", "flag": 0}, "phone": "", "education": {"id": "", "value": "", "flag": 0}, "workin": "", "jobname": "", "nativeplace": "", "email": "", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "otherinfo": {"cluestudentid": "1061140025134", "health": {"id": "", "value": "", "flag": 0}, "allergy": "", "register": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "relation": {"id": "", "value": "", "flag": 0}, "resident": {"province": {"id": "", "value": "", "flag": 0}, "city": {"id": "", "value": "", "flag": 0}, "area": {"id": "", "value": "", "flag": 0}, "address": ""}, "likes": "", "report": "", "focus": "", "hope": "", "remark": "", "clueimginfo": [], "relationcode": "", "isstay": 0, "award": null, "relationship": "", "cluescoreimginfo": [], "householdtype": {"id": "", "value": null, "flag": 0}}, "birthday": "", "nationality": {"id": "", "value": "", "flag": 0}, "idtype": {"id": "", "value": "", "flag": 0}, "cardid": "", "govstudentid": "", "semester": "", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "marktype": 0, "processid": "5550025134", "processnodeid": "5560025134", "processinstanceid": "1061170025134", "processnodename": "\u5ba1\u6838", "processintancestatus": 1, "nodebranch": [{"id": "5560025134", "processnodeid": "5560025134", "processnodebranchid": "5560025134", "nodebranchids": [], "processnodename": "\u5ba1\u6838", "type": 1}, {"id": "5570025134", "processnodeid": "5560025134", "processnodebranchid": "5570025134", "nodebranchids": [], "processnodename": "\u9762\u6d4b", "type": 0}, {"id": "1000120025134", "processnodeid": "5560025134", "processnodebranchid": "1000120025134", "nodebranchids": [], "processnodename": "\u62a5\u540d", "type": 2}], "campusid": "1040025134", "periodid": "", "ishangup": 0, "areacode": null, "updatetime": "2021/1/26 10:00", "updateuser": "\u7cfb\u7edf\u7ba1\u7406\u5458", "nowgradeid": "", "nowgrade": "", "parentupdatetime": "1990/1/1 0:00", "processintancenodeispass": 0, "islock": 0, "processnodetype": 1, "clueorderinfo": {"ordermoney": 0, "paymoney": 0, "lessmoney": 0, "orderflag": 0}, "politicalstatus": {"id": "", "value": "", "flag": 0}, "educationlevel": {"id": "", "value": "", "flag": 0}, "graduateschool": "", "skilllevel": {"id": "", "value": "", "flag": 0}, "educational": {"id": "", "value": "", "flag": 0}, "householdtype": {"id": "", "value": "", "flag": 0}, "lableinfolist": [], "otheremployees": [], "studentstatus": 0, "cluereceiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}, "clueyellow": 0, "cluered": 0, "registertime": "", "direction": {"id": "", "value": "", "flag": 0}, "cluestatusid": "", "cluecategoryid": ""}], "page": {"pageindex": 1, "totalpage": 1, "recordcount": 4}}</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"studentid": "1066100025134", "baseinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15230062426", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 12:00:02", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066330025134", "studentid": "1066100025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 12:00:02", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066100025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1066360025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1066100025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1066370025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066100025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1066340025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 12:00:02", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1066160025134", "baseinfo": {"id": "1066160025134", "name": "\u5e9e\u9cd3", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:59:56", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066170025134", "studentid": "1066160025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066160025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1066200025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066160025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1066180025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1066210025134", "studentid": "1066160025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065360025134", "baseinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15033157521", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:39", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-27", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065590025134", "studentid": "1065360025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 11:55:39", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065360025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1065620025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1065360025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1065630025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065360025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1065600025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 11:55:39", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065420025134", "baseinfo": {"id": "1065420025134", "name": "\u65b9\u9af9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:33", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065430025134", "studentid": "1065420025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065420025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1065460025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065420025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1065440025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1065470025134", "studentid": "1065420025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064330025134", "baseinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15257889150", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:37:10", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-26", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1064610025134", "studentid": "1064330025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 23:37:10", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064330025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1064640025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1064330025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1064650025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1064330025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-26", "id": "1064620025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-26 23:37:10", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064390025134", "baseinfo": {"id": "1064390025134", "name": "\u8212\u8e40\u6c55", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1064400025134", "studentid": "1064390025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064390025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1064430025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1064390025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1064410025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1064440025134", "studentid": "1064390025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064040025134", "baseinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15893984471", "birthday": "2014-08-18", "nationality": "97", "nation": "30", "certificatestype": "4", "certificatesnumber": "636040198003053045", "status": 1, "createtime": "2021-01-26 23:32:46", "createuserid": "", "studentclassstatus": 0, "nationalityname": "\u4e2d\u56fd\uff08\u9999\u6e2f\uff09", "nationname": "\u85cf\u65cf", "certificatestypename": "\u8eab\u4efd\u8bc1", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "121", "politicalstatusname": "\u5171\u4ea7\u515a\u5458", "educationlevelid": "124", "educationlevelname": "\u521d\u4e2d", "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "lableinfolist": [], "paydate": "", "directionid": "1000940025134", "directionname": "UC", "age": "40", "povertyid": "", "povertyname": "", "employeeid": "1001070025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "130000", "registrycity": "130900", "registryarea": "130904", "registryaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6237\u7c4d\u8be6\u7ec6\u5730\u5740", "familyprovince": "130000", "familycity": "130900", "familyarea": "130904", "familyaddress": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bb6\u5ead\u5e38\u4f4f\u5730\u8be6\u7ec6\u5730\u5740", "isstay": 1, "istakebus": 0, "healthcondition": "10", "awards": "", "expectation": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u5bf9\u5b69\u5b50\u5165\u5b66\u540e\u7684\u671f\u671b", "remark": "", "relation": "84", "likes": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7231\u597d\u4e0e\u7279\u957f", "report": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6210\u957f\u62a5\u544a\u8bb0\u5f55", "allergy": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6709\u65e0\u836f\u7269\u8fc7\u654f", "studentimg": [], "registryprovincename": "\u6cb3\u5317\u7701", "registrycityname": "\u5510\u5c71\u5e02", "registryareaname": "\u5f00\u5e73\u533a", "familyprovincename": "\u6cb3\u5317\u7701", "familycityname": "\u5510\u5c71\u5e02", "familyareaname": "\u5f00\u5e73\u533a", "healthconditionname": "\u6709\u751f\u7406\u7f3a\u9677", "relationname": "\u7236\u6bcd", "follow": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u9009\u62e9\u5b66\u6821\u60a8\u6700\u5173\u6ce8\u4ec0\u4e48", "id": "1064190025134", "studentid": "1064040025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "1000920025134", "householdtypename": "\u519c\u6751\u6237\u53e3", "bankaccount": "", "employee": {"id": "1001070025134", "value": "shaohui1", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 23:32:46", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064040025134", "calltype": "12", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "13704059705", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7c4d\u8d2f\u8f93\u5165", "email": "dad@qq.com", "calltypename": "\u7238\u7238", "educationname": "\u7855\u58eb", "id": "1064220025134", "appellationcode": "Father", "areacode": "+86", "idcard": "123338197511277229"}, {"studentid": "1064040025134", "calltype": "13", "name": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u7236\u4eb2\u59d3\u540d\u8f93\u5165", "smstel": "15099931584", "education": "20", "workcompany": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u5de5\u4f5c\u5355\u4f4d\u8f93\u5165", "jobname": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u804c\u4f4d\u8f93\u5165", "nativeplace": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6bcd\u4eb2\u7c4d\u8d2f\u8f93\u5165", "email": "mom@qq.com", "calltypename": "\u5988\u5988", "educationname": "\u7855\u58eb", "id": "1064230025134", "appellationcode": "Mother", "areacode": "+86", "idcard": "455440195610257350"}], "schoolrollinfo": {"studentid": "1064040025134", "schoolrollnumber": "QA2955903", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 2021, "indate": "2021-01-26", "id": "1064200025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "1001160025134", "datafromname": "UC", "startschoolway": "90", "startschoolwayname": "\u63d2\u73ed", "majorname": "\u82f1\u8bed", "majorid": "1000860025134", "graduateschool": "\u5168\u65e5\u667a\u81ea\u52a8\u5316\u6d4b\u8bd5\u6bd5\u4e1a\u5b66\u6821\u8f93\u5165", "skilllevelid": "135", "skilllevelname": "\u6280\u5e08", "educationalid": "1001040025134", "educationalname": "\u56db\u5e74\u5b66\u5236", "originagraduategradeid": "154", "originagraduategradename": "\u9ad8\u4e8c", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "",</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"studentid": "1066850025134", "baseinfo": {"id": "1066850025134", "name": "\u6ed5\u641e", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "13129696787", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 12:09:26", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1067080025134", "studentid": "1066850025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 12:09:26", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066850025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1067110025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1066850025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1067120025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066850025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1067090025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 12:09:26", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1066910025134", "baseinfo": {"id": "1066910025134", "name": "\u5415\u6628\u65c4", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 12:09:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066920025134", "studentid": "1066910025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066910025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1066950025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066910025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1066930025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1066960025134", "studentid": "1066910025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1066100025134", "baseinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15230062426", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 12:00:02", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-27", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066330025134", "studentid": "1066100025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 12:00:02", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066100025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1066360025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1066100025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1066370025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066100025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1066340025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 12:00:02", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1066160025134", "baseinfo": {"id": "1066160025134", "name": "\u5e9e\u9cd3", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:59:56", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1066170025134", "studentid": "1066160025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1066160025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1066200025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1066160025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1066180025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1066210025134", "studentid": "1066160025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065360025134", "baseinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15033157521", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:39", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-27", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065590025134", "studentid": "1065360025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-27 11:55:39", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065360025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1065620025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1065360025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1065630025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065360025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-27", "id": "1065600025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-27 11:55:39", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1065420025134", "baseinfo": {"id": "1065420025134", "name": "\u65b9\u9af9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-27 11:55:33", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1065430025134", "studentid": "1065420025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "", "value": null, "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "", "personliableid": "", "commontime": "1900-01-01 00:00:00", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1065420025134", "calltype": "", "name": "", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "", "educationname": "", "id": "1065460025134", "appellationcode": "", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1065420025134", "schoolrollnumber": "", "serial": "", "academicid": "1000020025134", "academicname": "\u5c0f\u5b66", "inyear": 0, "indate": "", "id": "1065440025134", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 0, "lableinfolist": [], "insuranceinfo": {"id": "1065470025134", "studentid": "1065420025134", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064330025134", "baseinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15257889150", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:37:10", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "", "gradename": null, "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "2021-01-26", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "1001090025134", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": null, "flag": 0}}, "extinfo": {"registryprovince": "", "registrycity": "", "registryarea": "", "registryaddress": "", "familyprovince": "", "familycity": "", "familyarea": "", "familyaddress": "", "isstay": 0, "istakebus": 0, "healthcondition": "", "awards": "", "expectation": "", "remark": "", "relation": "", "likes": "", "report": "", "allergy": "", "studentimg": [], "registryprovincename": "", "registrycityname": "", "registryareaname": "", "familyprovincename": "", "familycityname": "", "familyareaname": "", "healthconditionname": "", "relationname": "", "follow": "", "id": "1064610025134", "studentid": "1064330025134", "dormitoryname": "", "relationship": "", "scoreimginfos": [], "householdtypeid": "", "householdtypename": "", "bankaccount": "", "employee": {"id": "1001090025134", "value": "shaohui2", "flag": 0}, "employeeids": [], "leaveschooltype": "", "leaveschooltypename": "", "leaveschoolremark": "", "outdate": "1900-01-01 00:00:00", "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "personliableid": "", "commontime": "2021-01-26 23:37:10", "personliablename": null, "datajson": ""}, "contactinfo": [{"studentid": "1064330025134", "calltype": "12", "name": "\u5168\u65e5\u667aAPI\u7236\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u7238\u7238", "educationname": "", "id": "1064640025134", "appellationcode": "Father", "areacode": "+86", "idcard": ""}, {"studentid": "1064330025134", "calltype": "13", "name": "\u5168\u65e5\u667aAPI\u6bcd\u4eb2\u59d3\u540d", "smstel": "", "education": "", "workcompany": "", "jobname": "", "nativeplace": "", "email": "", "calltypename": "\u5988\u5988", "educationname": "", "id": "1064650025134", "appellationcode": "Mother", "areacode": "+86", "idcard": ""}], "schoolrollinfo": {"studentid": "1064330025134", "schoolrollnumber": "", "serial": "", "academicid": "", "academicname": "", "inyear": 2021, "indate": "2021-01-26", "id": "1064620025134", "gradeid": "", "gradename": "", "classname": "", "originalgradeid": "", "originalgradename": "", "originalclassid": "", "originalclassname": "", "datafrom": "", "datafromname": "", "startschoolway": "", "startschoolwayname": "", "majorname": null, "majorid": "", "graduateschool": "", "skilllevelid": "", "skilllevelname": "", "educationalid": "", "educationalname": "", "originagraduategradeid": "", "originagraduategradename": "", "originagraduatedate": "", "originagraduatewayid": "", "originagraduatewayname": "", "inschoolrolldate": "", "reportdate": "", "headerteachername": "", "headerteacherphone": "", "schoolrollstatusupdatetime": "1900-01-01 00:00:00"}, "studentcustfieldinfo": [], "orderflag": 1, "lableinfolist": [], "insuranceinfo": {"id": "", "studentid": "", "campusstartdate": "", "campusenddate": "", "campusstatus": 4, "casualtystartdate": "", "casualtyenddate": "", "casualtystatus": 4, "liabilitystartdate": "", "liabilityenddate": "", "liabilitystatus": 4}, "studentexaminfolist": [], "employmentinfo": {"id": "", "studentid": "", "destination": null, "intention": null, "company": null, "province": "", "provincename": "", "city": "", "cityname": "", "area": "", "areaname": ""}, "receiptinfo": {"receiptmoney": 0, "receiptflag": 0}, "commoninfo": {"id": "", "commontime": "2021-01-26 23:37:10", "type": {}, "cluecategory": {}, "status": {}, "intention": 0, "cluestatus": {}, "content": "\u6ce8\u518c\u4e3a\u5b66\u751f", "nextcomtime": null, "createtime": null, "commonuser": {}, "module": 0}}, {"studentid": "1064390025134", "baseinfo": {"id": "1064390025134", "name": "\u8212\u8e40\u6c55", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "birthday": "", "nationality": "", "nation": "", "certificatestype": "", "certificatesnumber": "", "status": 1, "createtime": "2021-01-26 23:36:20", "createuserid": "", "studentclassstatus": 0, "nationalityname": "", "nationname": "", "certificatestypename": "", "cluestudentid": "", "campusid": "1040025134", "isbindweixin": 0, "campusname": "\u5168\u65e5\u667a\u5355\u6821\u533a\u6d4b\u8bd5\u6821\u533a", "areacode": "+86", "outdate": "", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "politicalstatusid": "", "politicalstatusname": "", "educationlevelid": "", "educationlevelname": "", "educationalname": null, "householdtypename": "", "lableinfolist": [], "paydate": "", "directionid": "", "directionname": "", "age": "", "povertyid": "", "povertyname": "", "employeeid": "", "enrollschool": {"id": "", "value": null, "flag": 0}, "enrolldepartment": {"id": "", "value": null, "flag": 0}, "enrollmajor": {"id": "", "value": n</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066520025134", "isexitstudentids": []}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1067270025134", "isexitstudentids": []}</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066620025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1067370025134"}</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066680025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1067430025134"}</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066520025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000394", "orderdate": "2021-01-27 12:00:11", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066510025134", "createtime": "2021-01-27 12:00:11", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "schoolrollnumber": null, "smstel": "15230062426", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:00:11", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1067270025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000396", "orderdate": "2021-01-27 12:09:35", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1067260025134", "createtime": "2021-01-27 12:09:35", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066850025134", "name": "\u6ed5\u641e", "schoolrollnumber": null, "smstel": "13129696787", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:09:35", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066850025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1067200025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000395", "orderdate": "2021-01-27 12:09:33", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1067190025134", "createtime": "2021-01-27 12:09:33", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066970025134", "name": "\u5b89\u5f7c", "schoolrollnumber": null, "smstel": "15054848657", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:09:33", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066970025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066100025134"}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "id": "1066850025134"}</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066520025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000394", "orderdate": "2021-01-27 12:00:11", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066510025134", "createtime": "2021-01-27 12:00:11", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "schoolrollnumber": null, "smstel": "15230062426", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:00:11", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066100025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1067270025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000396", "orderdate": "2021-01-27 12:09:35", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1067260025134", "createtime": "2021-01-27 12:09:35", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066850025134", "name": "\u6ed5\u641e", "schoolrollnumber": null, "smstel": "13129696787", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 12:09:35", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066850025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1067200025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000395", "orderdate": "2021-01-27 12:09:33", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1067190025134", "createtime": "2021-01-27 12:09:33", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066970025134", "name": "\u5b89\u5f7c", "schoolrollnumber": null, "smstel": "15054848657", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:09:33", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066970025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 249}}</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"receiptnumber": "C0000023", "receiptmoney": 100, "payqrcode": null}, "url": null, "paycode": null}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": {"receiptnumber": "C0000024", "receiptmoney": 100, "payqrcode": null}, "url": null, "paycode": null}</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1066450025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000393", "orderdate": "2021-01-27 12:00:09", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1066440025134", "createtime": "2021-01-27 12:00:09", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066220025134", "name": "\u5143\u8d47", "schoolrollnumber": null, "smstel": "15164101149", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:00:09", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066220025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 248}}</t>
+          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"id": "1067200025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000395", "orderdate": "2021-01-27 12:09:33", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1067190025134", "createtime": "2021-01-27 12:09:33", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1066970025134", "name": "\u5b89\u5f7c", "schoolrollnumber": null, "smstel": "15054848657", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-27 12:09:33", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1066970025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1065780025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000392", "orderdate": "2021-01-27 11:55:48", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1065770025134", "createtime": "2021-01-27 11:55:48", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1065360025134", "name": "\u7ae0\u851a\u82d3", "schoolrollnumber": null, "smstel": "15033157521", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1066020025134", "receiptnumber": "C0000022", "paymentchannel": 2, "receiptdate": "2021-01-27 11:56:07", "orderid": "1065780025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1065360025134", "studentbaseinfo": {}, "ordercode": "OR0000392", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-27 11:56:12", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1065360025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064800025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000390", "orderdate": "2021-01-26 23:38:36", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064790025134", "createtime": "2021-01-26 23:38:36", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1064330025134", "name": "\u5c91\u82ac", "schoolrollnumber": null, "smstel": "15257889150", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1065050025134", "receiptnumber": "C0000021", "paymentchannel": 2, "receiptdate": "2021-01-26 23:42:07", "orderid": "1064800025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1064330025134", "studentbaseinfo": {}, "ordercode": "OR0000390", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:42:44", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064330025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064460025134", "remark": "\u6d4b\u8bd5\u5b66\u751f\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000388", "orderdate": "2021-01-26 23:36:29", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064450025134", "createtime": "2021-01-26 23:36:29", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1064040025134", "name": "\u5468\u54d4", "schoolrollnumber": null, "smstel": "15893984471", "sex": 1, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "636040198003053045", "adviser": "shaohui1", "major": null, "educationalname": "\u56db\u5e74\u5b66\u5236", "householdtypename": "\u519c\u6751\u6237\u53e3", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 23:36:29", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1064040025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1064290025134", "remark": "\u6d4b\u8bd5\u7ebf\u7d22\u8ba2\u5355\u5907\u6ce8--\u5e76\u4e14\u662f\u6536\u636e\u5907\u6ce8", "ordermoney": 2000, "paymoney": 0, "lessmoney": 2000, "status": 3, "ordercode": "OR0000387", "orderdate": "2021-01-26 23:34:46", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1064280025134", "createtime": "2021-01-26 23:34:46", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 1, "productcount": 1, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}], "studentinfo": {"id": "1063980025134", "name": "\u6bd5\u54ad\u8fc4", "schoolrollnumber": null, "smstel": "15592246036", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "", "receiptnumber": null, "paymentchannel": 0, "receiptdate": "0001-01-01 00:00:00", "orderid": "", "accountname": null, "receiptmoney": 0, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": null, "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "", "studentbaseinfo": {}, "ordercode": null, "paymentnumber": null, "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 23:34:46", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 2000, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063980025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1063600025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000385", "orderdate": "2021-01-26 16:29:14", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1063590025134", "createtime": "2021-01-26 16:29:14", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1063180025134", "name": "\u5c91\u6446\u50d6", "schoolrollnumber": null, "smstel": "13823219798", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063850025134", "receiptnumber": "C0000020", "paymentchannel": 2, "receiptdate": "2021-01-26 16:32:00", "orderid": "1063600025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1063180025134", "studentbaseinfo": {}, "ordercode": "OR0000385", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:32:39", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1063180025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1062860025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 2244.67, "paymoney": 0, "lessmoney": 2244.67, "status": 3, "ordercode": "OR0000383", "orderdate": "2021-01-26 16:13:47", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1062850025134", "createtime": "2021-01-26 16:13:47", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1062440025134", "name": "\u97e9\u90dd\u6f89", "schoolrollnumber": null, "smstel": "13220017137", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": null, "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": "shaohui2", "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1063110025134", "receiptnumber": "C0000019", "paymentchannel": 2, "receiptdate": "2021-01-26 16:18:27", "orderid": "1062860025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1062440025134", "studentbaseinfo": {}, "ordercode": "OR0000383", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:19:32", "discountlist": [], "campusname": null, "discountmoney": 1211.34, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1062440025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061710025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 1445.18, "paymoney": 0, "lessmoney": 1445.18, "status": 3, "ordercode": "OR0000381", "orderdate": "2021-01-26 13:48:07", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061700025134", "createtime": "2021-01-26 13:48:07", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062180025134", "receiptnumber": "C0000016", "paymentchannel": 2, "receiptdate": "2021-01-26 15:32:38", "orderid": "1061710025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000381", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 16:00:53", "discountlist": [], "campusname": null, "discountmoney": 2010.83, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1061640025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000380", "orderdate": "2021-01-26 13:38:19", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1061630025134", "createtime": "2021-01-26 13:38:19", "createusername": "shaohui1", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060660025134", "name": "\u90d1\u655d\u6e6b", "schoolrollnumber": null, "smstel": "18793536464", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "1000030025134", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classid": "", "classname": null, "isnewstudent": 0, "cardid": "", "adviser": null, "major": null, "educationalname": null, "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062240025134", "receiptnumber": "C0000017", "paymentchannel": 2, "receiptdate": "2021-01-26 15:40:02", "orderid": "1061640025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060660025134", "studentbaseinfo": {}, "ordercode": "OR0000380", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 0, "campusid": "", "updatetime": "2021-01-26 15:59:44", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060660025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}, {"id": "1060920025134", "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5", "ordermoney": 3456.01, "paymoney": 0, "lessmoney": 3456.01, "status": 3, "ordercode": "OR0000379", "orderdate": "2021-01-26 09:31:34", "ordertype": 1, "sendstatus": 0, "lastsendtime": "0001-01-01 00:00:00", "ordertaskid": "1060910025134", "createtime": "2021-01-26 09:31:34", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "productsum": 3, "productcount": 3, "productinfos": [{"productid": "1001140025134", "productname": "\u4e00\u5e74\u7ea7\u8865\u8bfe\u8d39", "unitprice": 2000, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 2000, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 2000, "preferentialmoney": 0, "lessmoney": 2000}, {"productid": "1001120025134", "productname": "\u4e00\u5e74\u7ea7\u6559\u6750\u8d39", "unitprice": 1456, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 1456, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 1456, "preferentialmoney": 0, "lessmoney": 1456}, {"productid": "1016330025134", "productname": "\u6d4b\u8bd5", "unitprice": 0.01, "unitid": "1000590025134", "unitname": "\u671f", "buyamount": 1, "buymoney": 0.01, "paymoney": 0, "typeid": "", "gradeids": [], "discountlist": [], "receivablemoney": 0.01, "preferentialmoney": 0, "lessmoney": 0.01}], "studentinfo": {"id": "1060210025134", "name": "\u9a6c\u9537\u8d39", "schoolrollnumber": null, "smstel": "15678152794", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "status": 1, "classstatus": 0, "outdate": "0001/1/1 0:00:00", "gradeid": "", "gradename": "", "classid": "", "classname": null, "isnewstudent": 1, "cardid": "", "adviser": "shaohui1", "major": null, "educationalname": "", "householdtypename": "", "isbindweixin": 0, "lableinfolist": []}, "receiptinfo": {"companyid": "", "id": "1062300025134", "receiptnumber": "C0000018", "paymentchannel": 2, "receiptdate": "2021-01-26 15:41:09", "orderid": "1060920025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 0, "createtime": "0001-01-01 00:00:00", "createuserid": "", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1060210025134", "studentbaseinfo": {}, "ordercode": "OR0000379", "paymentnumber": "", "paymenttypenames": null, "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 0, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": null, "sharetype": 0, "campusname": null, "sectionid": "", "sectionname": null}, "receiptinfos": [], "isnewstudent": 1, "campusid": "", "updatetime": "2021-01-26 15:55:58", "discountlist": [], "campusname": null, "discountmoney": 0, "receivablemoney": 3456.01, "orderdiscountmoney": 0, "companyname": null, "productdiscountmoney": 0, "productoffsetmoney": 0, "studentuserid": "1060210025134", "pushcount": 0, "pushtime": "", "lableinfolist": [], "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb", "loginfos": []}], "page": {"pageindex": 1, "totalpage": 25, "recordcount": 248}}</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"result": {"code": 200, "msg": "\u6210\u529f"}, "data": [{"companyid": "", "id": "1066770025134", "receiptnumber": "C0000023", "paymentchannel": 2, "receiptdate": "2021-01-27 12:00:29", "orderid": "1066520025134", "accountname": "\u5fae\u4fe1", "receiptmoney": 100, "status": 1, "createtime": "2021-01-27 12:00:29", "createuserid": "1001070025134", "createusername": "shaohui1", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1066100025134", "studentbaseinfo": {"id": "1066100025134", "name": "\u8d1d\u57c2", "sex": 0, "photo": "https://cdn01.xiaogj.com/file/f0af2525cac44096bea48e0db0f247b6/201906/61f5e519ec2649fc92a95f52f6bd294f.png", "smstel": "15230062426", "gradename": "", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000394", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "\u5168\u65e5\u667aAPI\u6d4b\u8bd5\u5b66\u8d39", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1053680025134", "receiptnumber": "C0000015", "paymentchannel": 1, "receiptdate": "2021-01-14 19:23:08", "orderid": "1053630025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2021-01-14 19:23:08", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1053100025134", "studentbaseinfo": {"id": "1053100025134", "name": "\u97e6\u9614\u6ee9", "sex": 0, "photo": "https://cdn01.xiaogj.com/uploads/smart/common/img/Student_0_Smart.png", "smstel": "18793536464", "gradename": "\u5c0f\u5b66\u4e00\u5e74\u7ea7", "classname": "", "certificatesnumber": "", "major": null, "status": 1, "isnewstudent": 0, "lableinfolist": []}, "ordercode": "OR0000344", "paymentnumber": null, "paymenttypenames": "\u5fae\u4fe1\u652f\u4ed8", "chinesereceiptmoney": null, "order": {}, "shortreceiptdate": "", "gradename": null, "classname": null, "campusid": "", "flag": 1, "paymenttype": 0, "paytype": 0, "feedate": null, "remark": "", "sharetype": 0, "campusname": null, "sectionid": "1017190025134", "sectionname": "2020\u5e74\u79cb"}, {"companyid": "", "id": "1047240025134", "receiptnumber": "C0000014", "paymentchannel": 1, "receiptdate": "2020-12-20 23:48:04", "orderid": "1047190025134", "accountname": "", "receiptmoney": 0.01, "status": 1, "createtime": "2020-12-20 23:48:04", "createuserid": "10025134", "createusername": "\u7cfb\u7edf\u7ba1\u7406\u5458", "updatetime": "0001-01-01 00:00:00", "updateuserid": "", "updateusername": null, "listreceiptdetail": [], "studentid": "1047090025134", "studentbaseinfo":